--- a/lib/ONIX3_implementation_and_mapping_151106.xlsx
+++ b/lib/ONIX3_implementation_and_mapping_151106.xlsx
@@ -17,13 +17,14 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Implementation!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Implementation!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Implementation!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1820">
   <si>
     <t>ONIX 3 RefName</t>
   </si>
@@ -529,7 +530,7 @@
     <t>Product.ProductCollectionSequence.CollectionSequenceNumber (assumption, verify later)</t>
   </si>
   <si>
-    <t>The NumberWithinSeries / b019 has cardinality [0…1] in ONIX 2.1, but the ONIX 3.0 &lt;collectionsequence&gt; is repeatable. </t>
+    <t>The NumberWithinSeries / b019 has cardinality [0…1] in ONIX 2.1, but the ONIX 3.0 &lt;collectionsequence&gt; is repeatable.</t>
   </si>
   <si>
     <t>/ONIXmessage/product/series/b019</t>
@@ -1315,8 +1316,7 @@
 Else if there is an Extent with type 11, take the value from b219;
 Else if… and so on in the following priority of extent types: 
 00, 06, 07, 08, 10, 03.
-If there is no &lt;Extent&gt; element with one of the given types, the Product.NumberOfPages property will be NULL (and therefore the product will fail when exported to Apple).
-</t>
+If there is no &lt;Extent&gt; element with one of the given types, the Product.NumberOfPages property will be NULL (and therefore the product will fail when exported to Apple).</t>
   </si>
   <si>
     <t>ONIXmessage/product/b061</t>
@@ -1788,8 +1788,7 @@
   </si>
   <si>
     <t>Master check: Make sure there is at least one &lt;TextContent&gt; element with a &lt;TextTypeCode&gt; of 02 or 03 and a non-empty &lt;Text&gt;:
-count(collateraldetail/textcontent[codelistvalues('02,03',x426) and normalize-space(d104)!='']) &gt;= 1]
-</t>
+count(collateraldetail/textcontent[codelistvalues('02,03',x426) and normalize-space(d104)!='']) &gt;= 1]</t>
   </si>
   <si>
     <t>/ONIXmessage/product/othertext/d102</t>
@@ -1885,15 +1884,13 @@
     <t>Product.ProductMedia.MediaFileTypeCode</t>
   </si>
   <si>
-    <t>The MediaFileTypeCode (f114) is determined by a combination of x436 and x437 as specified in the separate document “MediaFile-Mapping_151007.xlsx” (see Jira ticket for KNDGARD-1199).
-</t>
+    <t>The MediaFileTypeCode (f114) is determined by a combination of x436 and x437 as specified in the separate document “MediaFile-Mapping_151007.xlsx” (see Jira ticket for KNDGARD-1199).</t>
   </si>
   <si>
     <t>Product.ProductSupportingResource.ResourceContentType</t>
   </si>
   <si>
-    <t>During ONIX 3 import combinations of x436 and x437 that are not listed in the mapping table cause an import failure; the product import will be rejected, the reason is written to the import error log.
-</t>
+    <t>During ONIX 3 import combinations of x436 and x437 that are not listed in the mapping table cause an import failure; the product import will be rejected, the reason is written to the import error log.</t>
   </si>
   <si>
     <t>/ONIXmessage//product/mediafile/f114</t>
@@ -2570,7 +2567,7 @@
     <t>Product.ProductRelatedProductProductFormDetail.Value</t>
   </si>
   <si>
-    <t>ONIX 2.1 only accepts one b211 value per relatedproduct, whereas in ONIX 3 b333 is repeatable. It would be good to store all b333 values for a given &lt;relatedproduct&gt;. </t>
+    <t>ONIX 2.1 only accepts one b211 value per relatedproduct, whereas in ONIX 3 b333 is repeatable. It would be good to store all b333 values for a given &lt;relatedproduct&gt;.</t>
   </si>
   <si>
     <t>/ONIXmessage/product/relatedproduct/b211</t>
@@ -3570,7 +3567,7 @@
     <t>persondate (ooo)</t>
   </si>
   <si>
-    <t>ProductContributorPersonDate (ooo)</t>
+    <t>PersonDate (ooo)</t>
   </si>
   <si>
     <t>x417 [1]</t>
@@ -4167,9 +4164,6 @@
     <t>WebsiteDescription (ooo)</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>b209 [0…n]</t>
   </si>
   <si>
@@ -4224,7 +4218,7 @@
     <t>CopyrightOwner</t>
   </si>
   <si>
-    <t>copyrightowner </t>
+    <t>copyrightowner</t>
   </si>
   <si>
     <t>copyrightowneridentifier [0…1]</t>
@@ -5090,7 +5084,7 @@
     <t>CollectionSequenceType / x479 and code list 197</t>
   </si>
   <si>
-    <t>If an ONIX 2.1 message contains a &lt;NumberWithinSequence&gt; element, this element must be mapped in ONIX 3 onto a &lt;CollectionSequence&gt; composite. The composite has a mandatory element &lt;CollectionSequenceType&gt;. </t>
+    <t>If an ONIX 2.1 message contains a &lt;NumberWithinSequence&gt; element, this element must be mapped in ONIX 3 onto a &lt;CollectionSequence&gt; composite. The composite has a mandatory element &lt;CollectionSequenceType&gt;.</t>
   </si>
   <si>
     <t>A. ONIX 2.1 -&gt; 3
@@ -5132,7 +5126,7 @@
     <t>Collection/TitleDetail/TitleType / collection/titledetail/b202 and code list 15</t>
   </si>
   <si>
-    <t>The ONIX 2.1 element &lt;TitleOfSeries&gt; / &lt;b018&gt; doesn't exist anymore in ONIX 3. The text of this element can be mapped onto a &lt;TitleStatement&gt; element within a Collection/TitleDetail composite. In an ONIX 3 TitleDetail composite a &lt;TitleType&gt; / &lt;b202&gt; has to be included, as it is mandatory. </t>
+    <t>The ONIX 2.1 element &lt;TitleOfSeries&gt; / &lt;b018&gt; doesn't exist anymore in ONIX 3. The text of this element can be mapped onto a &lt;TitleStatement&gt; element within a Collection/TitleDetail composite. In an ONIX 3 TitleDetail composite a &lt;TitleType&gt; / &lt;b202&gt; has to be included, as it is mandatory.</t>
   </si>
   <si>
     <t>A. ONIX 2.1 -&gt; 3:
@@ -5246,8 +5240,7 @@
 c) "06" ("review quote") -&gt; "08" ("review quote")
 d) "05" ("flap / cover copy") -&gt; "17" ("flap copy") rather than "18" ("back cover copy"), as flap is the more general concept?
 e) for the following 1:1 mappings in column D, just reverse them when converting from 3 -&gt; 2.1: e), f), g), h), j), k), l), m), n), p), q), r), t)
-f) reverse the mapping described in column D, part o) taking the information from the &lt;ContentAudience&gt; element into account
-</t>
+f) reverse the mapping described in column D, part o) taking the information from the &lt;ContentAudience&gt; element into account</t>
   </si>
   <si>
     <t>implemented:
@@ -6151,7 +6144,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6488,10 +6481,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6512,9 +6501,9 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Neutral" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -6580,23 +6569,19 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>559800</xdr:colOff>
+      <xdr:colOff>586440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6605,8 +6590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="264960" y="3429360"/>
-          <a:ext cx="1716480" cy="2599920"/>
+          <a:off x="291960" y="3420360"/>
+          <a:ext cx="1716120" cy="2599560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6732,15 +6717,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>981000</xdr:colOff>
+      <xdr:colOff>1008000</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1270800</xdr:colOff>
+      <xdr:colOff>1297440</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6749,8 +6734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5246280" y="25803360"/>
-          <a:ext cx="3133080" cy="981720"/>
+          <a:off x="5273280" y="25794360"/>
+          <a:ext cx="3132720" cy="981360"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
           <a:avLst/>
@@ -6799,15 +6784,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>517320</xdr:colOff>
+      <xdr:colOff>544320</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>276120</xdr:rowOff>
+      <xdr:rowOff>267120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>812160</xdr:colOff>
+      <xdr:colOff>838800</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6816,8 +6801,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="517320" y="13954320"/>
-          <a:ext cx="1716480" cy="5417280"/>
+          <a:off x="544320" y="13945320"/>
+          <a:ext cx="1716120" cy="5416920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7718,6 +7703,9 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="145.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
       <c r="D19" s="1" t="s">
         <v>103</v>
       </c>
@@ -9675,6 +9663,9 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="204.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0"/>
+      <c r="B80" s="0"/>
+      <c r="C80" s="0"/>
       <c r="D80" s="1" t="s">
         <v>420</v>
       </c>
@@ -9781,6 +9772,7 @@
       <c r="G83" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H83" s="0"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -10826,6 +10818,7 @@
       <c r="G116" s="1" t="s">
         <v>602</v>
       </c>
+      <c r="H116" s="0"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -10957,6 +10950,7 @@
       <c r="G120" s="1" t="s">
         <v>628</v>
       </c>
+      <c r="H120" s="0"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -11052,6 +11046,7 @@
       <c r="G123" s="1" t="s">
         <v>645</v>
       </c>
+      <c r="H123" s="0"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -11128,6 +11123,9 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0"/>
+      <c r="B126" s="0"/>
+      <c r="C126" s="0"/>
       <c r="D126" s="1" t="s">
         <v>657</v>
       </c>
@@ -11199,6 +11197,7 @@
       <c r="G128" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H128" s="0"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -11230,6 +11229,7 @@
       <c r="G129" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H129" s="0"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -11363,6 +11363,7 @@
       <c r="G133" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H133" s="0"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -11587,6 +11588,7 @@
       <c r="G140" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H140" s="0"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -11618,6 +11620,7 @@
       <c r="G141" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H141" s="0"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -11683,6 +11686,7 @@
       <c r="G143" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H143" s="0"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -11714,6 +11718,7 @@
       <c r="G144" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H144" s="0"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -11745,6 +11750,7 @@
       <c r="G145" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H145" s="0"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -11776,6 +11782,7 @@
       <c r="G146" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H146" s="0"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -12401,6 +12408,7 @@
       <c r="G166" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H166" s="0"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -12432,6 +12440,7 @@
       <c r="G167" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H167" s="0"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -12461,6 +12470,7 @@
       <c r="G168" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H168" s="0"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
@@ -12492,6 +12502,7 @@
       <c r="G169" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H169" s="0"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
@@ -12523,6 +12534,7 @@
       <c r="G170" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H170" s="0"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -13268,7 +13280,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13279,8 +13290,8 @@
   </sheetPr>
   <dimension ref="A1:J258"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A205" activeCellId="0" sqref="A205"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H100" activeCellId="0" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -15049,7 +15060,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -16733,16 +16744,14 @@
       <c r="I187" s="27" t="s">
         <v>1179</v>
       </c>
-      <c r="J187" s="1" t="s">
-        <v>1351</v>
-      </c>
+      <c r="J187" s="1"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="23" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E188" s="24" t="s">
         <v>738</v>
@@ -16760,7 +16769,7 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="26" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E189" s="19" t="s">
         <v>743</v>
@@ -16778,16 +16787,16 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="18" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E190" s="29" t="s">
         <v>748</v>
       </c>
       <c r="F190" s="30" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G190" s="27" t="s">
         <v>1355</v>
-      </c>
-      <c r="G190" s="27" t="s">
-        <v>1356</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -16798,7 +16807,7 @@
       <c r="B191" s="1"/>
       <c r="C191" s="6"/>
       <c r="D191" s="54" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E191" s="19" t="s">
         <v>753</v>
@@ -16814,7 +16823,7 @@
       <c r="B192" s="1"/>
       <c r="C192" s="6"/>
       <c r="E192" s="56" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F192" s="57" t="s">
         <v>756</v>
@@ -16835,10 +16844,10 @@
         <v>309</v>
       </c>
       <c r="G193" s="61" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H193" s="62" t="s">
         <v>1359</v>
-      </c>
-      <c r="H193" s="62" t="s">
-        <v>1360</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -16848,10 +16857,10 @@
       <c r="B194" s="1"/>
       <c r="C194" s="6"/>
       <c r="D194" s="19" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E194" s="19" t="s">
         <v>1361</v>
-      </c>
-      <c r="E194" s="19" t="s">
-        <v>1362</v>
       </c>
       <c r="F194" s="63"/>
       <c r="G194" s="63"/>
@@ -16864,10 +16873,10 @@
       <c r="B195" s="1"/>
       <c r="C195" s="6"/>
       <c r="E195" s="19" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F195" s="19" t="s">
         <v>1363</v>
-      </c>
-      <c r="F195" s="19" t="s">
-        <v>1364</v>
       </c>
       <c r="G195" s="63"/>
       <c r="H195" s="63"/>
@@ -16879,13 +16888,13 @@
       <c r="B196" s="1"/>
       <c r="C196" s="6"/>
       <c r="E196" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F196" s="19" t="s">
         <v>1365</v>
       </c>
-      <c r="F196" s="19" t="s">
+      <c r="G196" s="20" t="s">
         <v>1366</v>
-      </c>
-      <c r="G196" s="20" t="s">
-        <v>1367</v>
       </c>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -16896,16 +16905,16 @@
       <c r="B197" s="1"/>
       <c r="C197" s="6"/>
       <c r="E197" s="19" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F197" s="19" t="s">
         <v>1368</v>
       </c>
-      <c r="F197" s="19" t="s">
+      <c r="G197" s="20" t="s">
         <v>1369</v>
       </c>
-      <c r="G197" s="20" t="s">
-        <v>1370</v>
-      </c>
       <c r="H197" s="20" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I197" s="6"/>
       <c r="J197" s="1"/>
@@ -16918,10 +16927,10 @@
       <c r="C198" s="6"/>
       <c r="E198" s="64"/>
       <c r="F198" s="46" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G198" s="19" t="s">
         <v>1371</v>
-      </c>
-      <c r="G198" s="19" t="s">
-        <v>1372</v>
       </c>
       <c r="H198" s="20"/>
       <c r="I198" s="20"/>
@@ -16936,16 +16945,16 @@
       <c r="E199" s="64"/>
       <c r="F199" s="64"/>
       <c r="G199" s="19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H199" s="19" t="s">
         <v>1373</v>
       </c>
-      <c r="H199" s="19" t="s">
+      <c r="I199" s="20" t="s">
         <v>1374</v>
       </c>
-      <c r="I199" s="20" t="s">
-        <v>1375</v>
-      </c>
       <c r="J199" s="20" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17039,16 +17048,16 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="14" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E204" s="24" t="s">
         <v>765</v>
       </c>
       <c r="F204" s="25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G204" s="21" t="s">
         <v>1377</v>
-      </c>
-      <c r="G204" s="21" t="s">
-        <v>1378</v>
       </c>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -17060,16 +17069,16 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="23" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F205" s="24" t="s">
         <v>771</v>
       </c>
       <c r="G205" s="25" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H205" s="21" t="s">
         <v>1380</v>
-      </c>
-      <c r="H205" s="21" t="s">
-        <v>1381</v>
       </c>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -17080,16 +17089,16 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="18" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F206" s="19" t="s">
         <v>776</v>
       </c>
       <c r="G206" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H206" s="28" t="s">
         <v>1383</v>
-      </c>
-      <c r="H206" s="28" t="s">
-        <v>1384</v>
       </c>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -17101,16 +17110,16 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="23" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G207" s="24" t="s">
         <v>779</v>
       </c>
       <c r="H207" s="25" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I207" s="21" t="s">
         <v>1386</v>
-      </c>
-      <c r="I207" s="21" t="s">
-        <v>1387</v>
       </c>
       <c r="J207" s="1"/>
     </row>
@@ -17121,16 +17130,16 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="18" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G208" s="29" t="s">
         <v>785</v>
       </c>
       <c r="H208" s="30" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I208" s="27" t="s">
         <v>1389</v>
-      </c>
-      <c r="I208" s="27" t="s">
-        <v>1390</v>
       </c>
       <c r="J208" s="1"/>
     </row>
@@ -17138,7 +17147,7 @@
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="19" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D209" s="19" t="s">
         <v>790</v>
@@ -17154,10 +17163,10 @@
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="D210" s="19" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E210" s="19" t="s">
         <v>1392</v>
-      </c>
-      <c r="E210" s="19" t="s">
-        <v>1393</v>
       </c>
       <c r="F210" s="20"/>
       <c r="G210" s="20"/>
@@ -17169,10 +17178,10 @@
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="E211" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F211" s="19" t="s">
         <v>1394</v>
-      </c>
-      <c r="F211" s="19" t="s">
-        <v>1395</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20"/>
@@ -17183,16 +17192,16 @@
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="E212" s="19" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F212" s="19" t="s">
         <v>1396</v>
       </c>
-      <c r="F212" s="19" t="s">
+      <c r="G212" s="20" t="s">
         <v>1397</v>
       </c>
-      <c r="G212" s="20" t="s">
+      <c r="H212" s="20" t="s">
         <v>1398</v>
-      </c>
-      <c r="H212" s="20" t="s">
-        <v>1399</v>
       </c>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -17201,16 +17210,16 @@
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="F213" s="19" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G213" s="19" t="s">
         <v>1400</v>
       </c>
-      <c r="G213" s="19" t="s">
+      <c r="H213" s="20" t="s">
         <v>1401</v>
       </c>
-      <c r="H213" s="20" t="s">
+      <c r="I213" s="20" t="s">
         <v>1402</v>
-      </c>
-      <c r="I213" s="20" t="s">
-        <v>1403</v>
       </c>
       <c r="J213" s="1"/>
     </row>
@@ -17238,16 +17247,16 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="14" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E215" s="24" t="s">
         <v>793</v>
       </c>
       <c r="F215" s="25" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G215" s="21" t="s">
         <v>1405</v>
-      </c>
-      <c r="G215" s="21" t="s">
-        <v>1406</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -17259,16 +17268,16 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="23" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F216" s="24" t="s">
         <v>799</v>
       </c>
       <c r="G216" s="25" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H216" s="21" t="s">
         <v>1408</v>
-      </c>
-      <c r="H216" s="21" t="s">
-        <v>1409</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -17359,7 +17368,7 @@
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="23" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F221" s="24" t="s">
         <v>85</v>
@@ -17368,7 +17377,7 @@
         <v>1036</v>
       </c>
       <c r="H221" s="21" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -17387,10 +17396,10 @@
         <v>94</v>
       </c>
       <c r="G222" s="30" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H222" s="27" t="s">
         <v>1412</v>
-      </c>
-      <c r="H222" s="27" t="s">
-        <v>1413</v>
       </c>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -17399,10 +17408,10 @@
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="14" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D223" s="15" t="s">
         <v>1414</v>
-      </c>
-      <c r="D223" s="15" t="s">
-        <v>1415</v>
       </c>
       <c r="E223" s="30"/>
       <c r="F223" s="27"/>
@@ -17418,10 +17427,10 @@
       <c r="B224" s="1"/>
       <c r="C224" s="64"/>
       <c r="D224" s="19" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E224" s="19" t="s">
         <v>1416</v>
-      </c>
-      <c r="E224" s="19" t="s">
-        <v>1417</v>
       </c>
       <c r="F224" s="20"/>
       <c r="G224" s="20"/>
@@ -17437,7 +17446,7 @@
       <c r="C225" s="64"/>
       <c r="D225" s="64"/>
       <c r="E225" s="19" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F225" s="19" t="s">
         <v>776</v>
@@ -17456,16 +17465,16 @@
       <c r="D226" s="64"/>
       <c r="E226" s="35"/>
       <c r="F226" s="19" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G226" s="19" t="s">
         <v>779</v>
       </c>
       <c r="H226" s="20" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I226" s="20" t="s">
         <v>1418</v>
-      </c>
-      <c r="I226" s="20" t="s">
-        <v>1419</v>
       </c>
       <c r="J226" s="1"/>
     </row>
@@ -17478,16 +17487,16 @@
       <c r="D227" s="64"/>
       <c r="E227" s="35"/>
       <c r="F227" s="19" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G227" s="19" t="s">
         <v>785</v>
       </c>
       <c r="H227" s="20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I227" s="20" t="s">
         <v>1420</v>
-      </c>
-      <c r="I227" s="20" t="s">
-        <v>1421</v>
       </c>
       <c r="J227" s="1"/>
     </row>
@@ -17496,16 +17505,16 @@
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="14" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E228" s="15" t="s">
         <v>831</v>
       </c>
       <c r="F228" s="16" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G228" s="17" t="s">
         <v>1423</v>
-      </c>
-      <c r="G228" s="17" t="s">
-        <v>1424</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -17519,7 +17528,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="14" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F229" s="15" t="s">
         <v>836</v>
@@ -17536,16 +17545,16 @@
       <c r="D230" s="1"/>
       <c r="E230" s="64"/>
       <c r="F230" s="23" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G230" s="24" t="s">
         <v>840</v>
       </c>
       <c r="H230" s="25" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I230" s="21" t="s">
         <v>1427</v>
-      </c>
-      <c r="I230" s="21" t="s">
-        <v>1428</v>
       </c>
       <c r="J230" s="1"/>
     </row>
@@ -17556,16 +17565,16 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="18" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G231" s="29" t="s">
         <v>846</v>
       </c>
       <c r="H231" s="30" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I231" s="27" t="s">
         <v>1430</v>
-      </c>
-      <c r="I231" s="27" t="s">
-        <v>1431</v>
       </c>
       <c r="J231" s="1"/>
     </row>
@@ -17577,7 +17586,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="23" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H232" s="24" t="s">
         <v>851</v>
@@ -17616,16 +17625,16 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="14" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G234" s="15" t="s">
         <v>859</v>
       </c>
       <c r="H234" s="16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I234" s="17" t="s">
         <v>1434</v>
-      </c>
-      <c r="I234" s="17" t="s">
-        <v>1435</v>
       </c>
       <c r="J234" s="1"/>
     </row>
@@ -17637,16 +17646,16 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="23" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F235" s="19" t="s">
         <v>864</v>
       </c>
       <c r="G235" s="20" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H235" s="28" t="s">
         <v>1437</v>
-      </c>
-      <c r="H235" s="28" t="s">
-        <v>1438</v>
       </c>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -17659,7 +17668,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="18" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F236" s="19" t="s">
         <v>870</v>
@@ -17676,7 +17685,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="23" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G237" s="24" t="s">
         <v>874</v>
@@ -17698,10 +17707,10 @@
         <v>309</v>
       </c>
       <c r="H238" s="20" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I238" s="27" t="s">
         <v>1441</v>
-      </c>
-      <c r="I238" s="27" t="s">
-        <v>1442</v>
       </c>
       <c r="J238" s="1"/>
     </row>
@@ -17713,16 +17722,16 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="14" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F239" s="15" t="s">
         <v>885</v>
       </c>
       <c r="G239" s="16" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H239" s="17" t="s">
         <v>1444</v>
-      </c>
-      <c r="H239" s="17" t="s">
-        <v>1445</v>
       </c>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -17734,16 +17743,16 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="23" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G240" s="24" t="s">
         <v>890</v>
       </c>
       <c r="H240" s="25" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I240" s="21" t="s">
         <v>1447</v>
-      </c>
-      <c r="I240" s="21" t="s">
-        <v>1448</v>
       </c>
       <c r="J240" s="1"/>
     </row>
@@ -17754,16 +17763,16 @@
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="18" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G241" s="19" t="s">
         <v>896</v>
       </c>
       <c r="H241" s="20" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I241" s="28" t="s">
         <v>1450</v>
-      </c>
-      <c r="I241" s="28" t="s">
-        <v>1451</v>
       </c>
       <c r="J241" s="1"/>
     </row>
@@ -17775,16 +17784,16 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="23" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H242" s="24" t="s">
         <v>901</v>
       </c>
       <c r="I242" s="25" t="s">
+        <v>1452</v>
+      </c>
+      <c r="J242" s="21" t="s">
         <v>1453</v>
-      </c>
-      <c r="J242" s="21" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17795,16 +17804,16 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="26" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H243" s="19" t="s">
         <v>907</v>
       </c>
       <c r="I243" s="20" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J243" s="28" t="s">
         <v>1456</v>
-      </c>
-      <c r="J243" s="28" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17815,16 +17824,16 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="18" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H244" s="29" t="s">
         <v>912</v>
       </c>
       <c r="I244" s="30" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J244" s="27" t="s">
         <v>1459</v>
-      </c>
-      <c r="J244" s="27" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17834,16 +17843,16 @@
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="23" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G245" s="19" t="s">
         <v>917</v>
       </c>
       <c r="H245" s="20" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I245" s="28" t="s">
         <v>1462</v>
-      </c>
-      <c r="I245" s="28" t="s">
-        <v>1463</v>
       </c>
       <c r="J245" s="1"/>
     </row>
@@ -17854,16 +17863,16 @@
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="26" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G246" s="19" t="s">
         <v>922</v>
       </c>
       <c r="H246" s="20" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I246" s="28" t="s">
         <v>1465</v>
-      </c>
-      <c r="I246" s="28" t="s">
-        <v>1466</v>
       </c>
       <c r="J246" s="1"/>
     </row>
@@ -17874,7 +17883,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="18" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G247" s="29" t="s">
         <v>927</v>
@@ -17891,10 +17900,10 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H248" s="19" t="s">
         <v>1468</v>
-      </c>
-      <c r="H248" s="19" t="s">
-        <v>1469</v>
       </c>
       <c r="I248" s="20"/>
       <c r="J248" s="20"/>
@@ -17907,16 +17916,16 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="23" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H249" s="24" t="s">
         <v>931</v>
       </c>
       <c r="I249" s="25" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J249" s="21" t="s">
         <v>1471</v>
-      </c>
-      <c r="J249" s="21" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17927,16 +17936,16 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="26" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H250" s="19" t="s">
         <v>938</v>
       </c>
       <c r="I250" s="20" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J250" s="28" t="s">
         <v>1474</v>
-      </c>
-      <c r="J250" s="28" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17947,16 +17956,16 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="18" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H251" s="29" t="s">
         <v>944</v>
       </c>
       <c r="I251" s="30" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J251" s="27" t="s">
         <v>1477</v>
-      </c>
-      <c r="J251" s="27" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17966,16 +17975,16 @@
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="23" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G252" s="24" t="s">
         <v>950</v>
       </c>
       <c r="H252" s="25" t="s">
+        <v>1479</v>
+      </c>
+      <c r="I252" s="21" t="s">
         <v>1480</v>
-      </c>
-      <c r="I252" s="21" t="s">
-        <v>1481</v>
       </c>
       <c r="J252" s="1"/>
     </row>
@@ -17986,7 +17995,7 @@
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="18" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G253" s="19" t="s">
         <v>776</v>
@@ -18003,16 +18012,16 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="23" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H254" s="24" t="s">
         <v>779</v>
       </c>
       <c r="I254" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J254" s="21" t="s">
         <v>1483</v>
-      </c>
-      <c r="J254" s="21" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18023,16 +18032,16 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="26" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H255" s="19" t="s">
         <v>785</v>
       </c>
       <c r="I255" s="20" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J255" s="27" t="s">
         <v>1485</v>
-      </c>
-      <c r="J255" s="27" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18042,7 +18051,7 @@
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="14" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G256" s="24" t="s">
         <v>965</v>
@@ -18059,16 +18068,16 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="23" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H257" s="24" t="s">
         <v>969</v>
       </c>
       <c r="I257" s="25" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J257" s="21" t="s">
         <v>1489</v>
-      </c>
-      <c r="J257" s="21" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18085,10 +18094,10 @@
         <v>309</v>
       </c>
       <c r="I258" s="30" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J258" s="27" t="s">
         <v>1489</v>
-      </c>
-      <c r="J258" s="27" t="s">
-        <v>1490</v>
       </c>
     </row>
   </sheetData>
@@ -18129,1494 +18138,1494 @@
   <sheetData>
     <row r="1" s="69" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>1491</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="C1" s="67" t="s">
         <v>1492</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="D1" s="67" t="s">
         <v>1493</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="67" t="s">
         <v>1494</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>1495</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="66" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B2" s="65" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D2" s="65" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F2" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="66" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B3" s="65" t="n">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D3" s="65" t="n">
         <v>5</v>
       </c>
       <c r="E3" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F3" s="70" t="s">
         <v>1498</v>
       </c>
-      <c r="F3" s="70" t="s">
-        <v>1499</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="66" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B4" s="65" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F4" s="20" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>1503</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="20" t="s">
         <v>1504</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="72" t="s">
         <v>1505</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="66" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B5" s="65" t="n">
         <v>150</v>
       </c>
       <c r="C5" s="66" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>1507</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="E5" s="65" t="s">
         <v>1508</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="F5" s="72" t="s">
         <v>1509</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="66" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B6" s="65" t="n">
         <v>175</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D6" s="65" t="n">
         <v>78</v>
       </c>
       <c r="E6" s="65" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F6" s="72" t="s">
         <v>1509</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="66" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B7" s="65" t="n">
         <v>81</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="66" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B8" s="65" t="n">
         <v>81</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D8" s="65" t="n">
         <v>81</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="66" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B9" s="65" t="n">
         <v>144</v>
       </c>
       <c r="C9" s="66" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>1517</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B10" s="65" t="n">
         <v>145</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B11" s="65" t="n">
         <v>146</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B12" s="65" t="n">
         <v>147</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B13" s="65" t="n">
         <v>218</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="66" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B14" s="65" t="n">
         <v>148</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B15" s="65" t="n">
         <v>13</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D15" s="65" t="n">
         <v>13</v>
       </c>
       <c r="E15" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F15" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="66" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B16" s="65" t="n">
         <v>197</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B17" s="65" t="n">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D17" s="65" t="n">
         <v>15</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B18" s="65" t="n">
         <v>149</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B19" s="65" t="n">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D19" s="65" t="n">
         <v>15</v>
       </c>
       <c r="E19" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F19" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B20" s="65" t="n">
         <v>149</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B21" s="65" t="n">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D21" s="65" t="n">
         <v>17</v>
       </c>
       <c r="E21" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F21" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B22" s="65" t="n">
         <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D22" s="65" t="n">
         <v>101</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B23" s="65" t="n">
         <v>177</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D23" s="65" t="n">
         <v>75</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B24" s="65" t="n">
         <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D24" s="65" t="n">
         <v>73</v>
       </c>
       <c r="E24" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F24" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F24" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B25" s="65" t="n">
         <v>21</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D25" s="65" t="n">
         <v>21</v>
       </c>
       <c r="E25" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F25" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B26" s="65" t="n">
         <v>22</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D26" s="65" t="n">
         <v>22</v>
       </c>
       <c r="E26" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F26" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B27" s="65" t="n">
         <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D27" s="65" t="n">
         <v>74</v>
       </c>
       <c r="E27" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F27" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F27" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B28" s="65" t="n">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D28" s="65" t="n">
         <v>23</v>
       </c>
       <c r="E28" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F28" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F28" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B29" s="65" t="n">
         <v>24</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D29" s="65" t="n">
         <v>24</v>
       </c>
       <c r="E29" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F29" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F29" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B30" s="65" t="n">
         <v>152</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B31" s="65" t="n">
         <v>25</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D31" s="65" t="n">
         <v>25</v>
       </c>
       <c r="E31" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F31" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F31" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B32" s="65" t="n">
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D32" s="65" t="n">
         <v>26</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B33" s="65" t="n">
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D33" s="65" t="n">
         <v>27</v>
       </c>
       <c r="E33" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F33" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F33" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B34" s="65" t="n">
         <v>28</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D34" s="65" t="n">
         <v>28</v>
       </c>
       <c r="E34" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F34" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F34" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B35" s="65" t="n">
         <v>29</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D35" s="65" t="n">
         <v>29</v>
       </c>
       <c r="E35" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F35" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F35" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B36" s="65" t="n">
         <v>30</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D36" s="65" t="n">
         <v>30</v>
       </c>
       <c r="E36" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F36" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B37" s="65" t="n">
         <v>31</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D37" s="65" t="n">
         <v>31</v>
       </c>
       <c r="E37" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F37" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F37" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B38" s="65" t="n">
         <v>153</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D38" s="65" t="n">
         <v>33</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F38" s="72" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B39" s="65" t="n">
         <v>154</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B40" s="65" t="n">
         <v>158</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D40" s="65" t="n">
         <v>38</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F40" s="72" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B41" s="65" t="n">
         <v>159</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F41" s="72" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B42" s="65" t="n">
         <v>161</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D42" s="65" t="n">
         <v>40</v>
       </c>
       <c r="E42" s="65" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F42" s="72" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B43" s="65" t="n">
         <v>162</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F43" s="72" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B44" s="65" t="n">
         <v>178</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F44" s="72" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B45" s="65" t="n">
         <v>155</v>
       </c>
       <c r="C45" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="73" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B46" s="74" t="n">
         <v>44</v>
       </c>
       <c r="C46" s="73" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D46" s="74" t="n">
         <v>44</v>
       </c>
       <c r="E46" s="74" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F46" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F46" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="73" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B47" s="74" t="n">
         <v>45</v>
       </c>
       <c r="C47" s="73" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D47" s="74" t="n">
         <v>45</v>
       </c>
       <c r="E47" s="74" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F47" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F47" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="73" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B48" s="74" t="n">
         <v>44</v>
       </c>
       <c r="C48" s="73" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D48" s="74" t="n">
         <v>44</v>
       </c>
       <c r="E48" s="74" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F48" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F48" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="73" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B49" s="74" t="n">
         <v>73</v>
       </c>
       <c r="C49" s="73" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D49" s="74" t="n">
         <v>73</v>
       </c>
       <c r="E49" s="74" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F49" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F49" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="73" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B50" s="74" t="n">
         <v>91</v>
       </c>
       <c r="C50" s="73" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D50" s="74" t="n">
         <v>91</v>
       </c>
       <c r="E50" s="74" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F50" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F50" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="75" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B51" s="74" t="n">
         <v>64</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D51" s="74" t="n">
         <v>64</v>
       </c>
       <c r="E51" s="74" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F51" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F51" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B52" s="65" t="n">
         <v>163</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B53" s="65" t="n">
         <v>219</v>
       </c>
       <c r="C53" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E53" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B54" s="65" t="n">
         <v>44</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D54" s="65" t="n">
         <v>44</v>
       </c>
       <c r="E54" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F54" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F54" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B55" s="65" t="n">
         <v>46</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D55" s="65" t="n">
         <v>46</v>
       </c>
       <c r="E55" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F55" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F55" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B56" s="65" t="n">
         <v>91</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D56" s="65" t="n">
         <v>91</v>
       </c>
       <c r="E56" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F56" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F56" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B57" s="65" t="n">
         <v>164</v>
       </c>
       <c r="C57" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B58" s="65" t="n">
         <v>16</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D58" s="65" t="n">
         <v>16</v>
       </c>
       <c r="E58" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F58" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F58" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B59" s="65" t="n">
         <v>51</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D59" s="65" t="n">
         <v>51</v>
       </c>
       <c r="E59" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F59" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F59" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B60" s="65" t="n">
         <v>91</v>
       </c>
       <c r="C60" s="66" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D60" s="65" t="n">
         <v>91</v>
       </c>
       <c r="E60" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F60" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F60" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B61" s="65" t="n">
         <v>49</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D61" s="65" t="n">
         <v>49</v>
       </c>
       <c r="E61" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F61" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F61" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B62" s="65" t="n">
         <v>93</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D62" s="65" t="n">
         <v>93</v>
       </c>
       <c r="E62" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F62" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F62" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B63" s="65" t="n">
         <v>92</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D63" s="65" t="n">
         <v>92</v>
       </c>
       <c r="E63" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F63" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F63" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B64" s="65" t="n">
         <v>65</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D64" s="65" t="n">
         <v>65</v>
       </c>
       <c r="E64" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F64" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F64" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B65" s="65" t="n">
         <v>166</v>
       </c>
       <c r="C65" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E65" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B66" s="65" t="n">
         <v>58</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D66" s="65" t="n">
         <v>58</v>
       </c>
       <c r="E66" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F66" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F66" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B67" s="65" t="n">
         <v>100</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D67" s="65" t="n">
         <v>100</v>
       </c>
       <c r="E67" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F67" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F67" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B68" s="65" t="n">
         <v>61</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D68" s="65" t="n">
         <v>61</v>
       </c>
       <c r="E68" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F68" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F68" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B69" s="65" t="n">
         <v>171</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E69" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B70" s="65" t="n">
         <v>62</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D70" s="65" t="n">
         <v>62</v>
       </c>
       <c r="E70" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F70" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F70" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B71" s="65" t="n">
         <v>96</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D71" s="65" t="n">
         <v>96</v>
       </c>
       <c r="E71" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F71" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F71" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B72" s="65" t="n">
         <v>91</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D72" s="65" t="n">
         <v>91</v>
       </c>
       <c r="E72" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F72" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F72" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B73" s="65" t="n">
         <v>49</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D73" s="65" t="n">
         <v>49</v>
       </c>
       <c r="E73" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F73" s="70" t="s">
         <v>1498</v>
-      </c>
-      <c r="F73" s="70" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B74" s="65" t="n">
         <v>173</v>
       </c>
       <c r="C74" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
   </sheetData>
@@ -19653,37 +19662,37 @@
   <sheetData>
     <row r="1" s="68" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="76" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1" s="76" t="s">
         <v>1625</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="C1" s="76" t="s">
         <v>1626</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="D1" s="76" t="s">
         <v>1627</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="E1" s="76" t="s">
         <v>1628</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="236.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="77" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>1630</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="C2" s="77" t="s">
         <v>1631</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="D2" s="77" t="s">
         <v>1632</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>1633</v>
       </c>
       <c r="E2" s="78"/>
       <c r="F2" s="0" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -20706,26 +20715,26 @@
     </row>
     <row r="3" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="79" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>1634</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="C3" s="79" t="s">
         <v>1635</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="D3" s="79" t="s">
         <v>1636</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>1637</v>
       </c>
       <c r="E3" s="78"/>
       <c r="F3" s="19" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>1504</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="72" t="s">
         <v>1505</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>1506</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
@@ -21746,19 +21755,19 @@
     </row>
     <row r="4" customFormat="false" ht="330.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="80" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>1638</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="C4" s="80" t="s">
         <v>1639</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="D4" s="80" t="s">
         <v>1640</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="E4" s="78" t="s">
         <v>1641</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>1642</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -22782,19 +22791,19 @@
     </row>
     <row r="5" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="80" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B5" s="80" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C5" s="80" t="s">
         <v>1643</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="D5" s="80" t="s">
         <v>1644</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="E5" s="78" t="s">
         <v>1645</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>1646</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -23818,16 +23827,16 @@
     </row>
     <row r="6" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B6" s="79" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C6" s="79" t="s">
         <v>1647</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="D6" s="79" t="s">
         <v>1648</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>1649</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="0"/>
@@ -24852,19 +24861,19 @@
     </row>
     <row r="7" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="79" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B7" s="79" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C7" s="79" t="s">
         <v>1650</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="D7" s="79" t="s">
         <v>1651</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="E7" s="78" t="s">
         <v>1652</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>1653</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -25888,16 +25897,16 @@
     </row>
     <row r="8" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B8" s="79" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C8" s="79" t="s">
         <v>1654</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="D8" s="79" t="s">
         <v>1655</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>1656</v>
       </c>
       <c r="E8" s="78"/>
       <c r="F8" s="0"/>
@@ -26922,16 +26931,16 @@
     </row>
     <row r="9" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B9" s="79" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C9" s="79" t="s">
         <v>1657</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="D9" s="79" t="s">
         <v>1658</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>1659</v>
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="0"/>
@@ -27956,16 +27965,16 @@
     </row>
     <row r="10" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B10" s="79" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C10" s="79" t="s">
         <v>1660</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="D10" s="79" t="s">
         <v>1661</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>1662</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -28990,19 +28999,19 @@
     </row>
     <row r="11" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B11" s="79" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C11" s="79" t="s">
         <v>1663</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="D11" s="79" t="s">
         <v>1664</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="E11" s="78" t="s">
         <v>1665</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>1666</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -30026,16 +30035,16 @@
     </row>
     <row r="12" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="77" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B12" s="77" t="s">
         <v>1667</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="C12" s="77" t="s">
         <v>1668</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="D12" s="77" t="s">
         <v>1669</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>1670</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="0"/>
@@ -31060,16 +31069,16 @@
     </row>
     <row r="13" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="77" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B13" s="77" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>1671</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="D13" s="77" t="s">
         <v>1672</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>1673</v>
       </c>
       <c r="E13" s="78"/>
       <c r="F13" s="0"/>
@@ -32094,16 +32103,16 @@
     </row>
     <row r="14" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="77" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B14" s="77" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C14" s="77" t="s">
         <v>1674</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="D14" s="77" t="s">
         <v>1675</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>1676</v>
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="0"/>
@@ -33128,22 +33137,22 @@
     </row>
     <row r="15" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="80" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B15" s="80" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C15" s="80" t="s">
         <v>1677</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="D15" s="80" t="s">
         <v>1678</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="E15" s="80" t="s">
         <v>1679</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="F15" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1681</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -34166,19 +34175,19 @@
     </row>
     <row r="16" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="80" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B16" s="80" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C16" s="80" t="s">
         <v>1682</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="D16" s="80" t="s">
         <v>1683</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="E16" s="80" t="s">
         <v>1684</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>1685</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -35202,16 +35211,16 @@
     </row>
     <row r="17" customFormat="false" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="79" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B17" s="79" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C17" s="79" t="s">
         <v>1686</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="D17" s="79" t="s">
         <v>1687</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>1688</v>
       </c>
       <c r="E17" s="78"/>
       <c r="F17" s="0"/>
@@ -36236,16 +36245,16 @@
     </row>
     <row r="18" customFormat="false" ht="299.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B18" s="79" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C18" s="79" t="s">
         <v>1689</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="D18" s="79" t="s">
         <v>1690</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>1691</v>
       </c>
       <c r="E18" s="78"/>
       <c r="F18" s="0"/>
@@ -37270,34 +37279,1053 @@
     </row>
     <row r="19" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B19" s="79" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C19" s="79" t="s">
         <v>1692</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="D19" s="79" t="s">
         <v>1693</v>
       </c>
-      <c r="D19" s="79" t="s">
-        <v>1694</v>
-      </c>
       <c r="E19" s="78"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="0"/>
+      <c r="AC19" s="0"/>
+      <c r="AD19" s="0"/>
+      <c r="AE19" s="0"/>
+      <c r="AF19" s="0"/>
+      <c r="AG19" s="0"/>
+      <c r="AH19" s="0"/>
+      <c r="AI19" s="0"/>
+      <c r="AJ19" s="0"/>
+      <c r="AK19" s="0"/>
+      <c r="AL19" s="0"/>
+      <c r="AM19" s="0"/>
+      <c r="AN19" s="0"/>
+      <c r="AO19" s="0"/>
+      <c r="AP19" s="0"/>
+      <c r="AQ19" s="0"/>
+      <c r="AR19" s="0"/>
+      <c r="AS19" s="0"/>
+      <c r="AT19" s="0"/>
+      <c r="AU19" s="0"/>
+      <c r="AV19" s="0"/>
+      <c r="AW19" s="0"/>
+      <c r="AX19" s="0"/>
+      <c r="AY19" s="0"/>
+      <c r="AZ19" s="0"/>
+      <c r="BA19" s="0"/>
+      <c r="BB19" s="0"/>
+      <c r="BC19" s="0"/>
+      <c r="BD19" s="0"/>
+      <c r="BE19" s="0"/>
+      <c r="BF19" s="0"/>
+      <c r="BG19" s="0"/>
+      <c r="BH19" s="0"/>
+      <c r="BI19" s="0"/>
+      <c r="BJ19" s="0"/>
+      <c r="BK19" s="0"/>
+      <c r="BL19" s="0"/>
+      <c r="BM19" s="0"/>
+      <c r="BN19" s="0"/>
+      <c r="BO19" s="0"/>
+      <c r="BP19" s="0"/>
+      <c r="BQ19" s="0"/>
+      <c r="BR19" s="0"/>
+      <c r="BS19" s="0"/>
+      <c r="BT19" s="0"/>
+      <c r="BU19" s="0"/>
+      <c r="BV19" s="0"/>
+      <c r="BW19" s="0"/>
+      <c r="BX19" s="0"/>
+      <c r="BY19" s="0"/>
+      <c r="BZ19" s="0"/>
+      <c r="CA19" s="0"/>
+      <c r="CB19" s="0"/>
+      <c r="CC19" s="0"/>
+      <c r="CD19" s="0"/>
+      <c r="CE19" s="0"/>
+      <c r="CF19" s="0"/>
+      <c r="CG19" s="0"/>
+      <c r="CH19" s="0"/>
+      <c r="CI19" s="0"/>
+      <c r="CJ19" s="0"/>
+      <c r="CK19" s="0"/>
+      <c r="CL19" s="0"/>
+      <c r="CM19" s="0"/>
+      <c r="CN19" s="0"/>
+      <c r="CO19" s="0"/>
+      <c r="CP19" s="0"/>
+      <c r="CQ19" s="0"/>
+      <c r="CR19" s="0"/>
+      <c r="CS19" s="0"/>
+      <c r="CT19" s="0"/>
+      <c r="CU19" s="0"/>
+      <c r="CV19" s="0"/>
+      <c r="CW19" s="0"/>
+      <c r="CX19" s="0"/>
+      <c r="CY19" s="0"/>
+      <c r="CZ19" s="0"/>
+      <c r="DA19" s="0"/>
+      <c r="DB19" s="0"/>
+      <c r="DC19" s="0"/>
+      <c r="DD19" s="0"/>
+      <c r="DE19" s="0"/>
+      <c r="DF19" s="0"/>
+      <c r="DG19" s="0"/>
+      <c r="DH19" s="0"/>
+      <c r="DI19" s="0"/>
+      <c r="DJ19" s="0"/>
+      <c r="DK19" s="0"/>
+      <c r="DL19" s="0"/>
+      <c r="DM19" s="0"/>
+      <c r="DN19" s="0"/>
+      <c r="DO19" s="0"/>
+      <c r="DP19" s="0"/>
+      <c r="DQ19" s="0"/>
+      <c r="DR19" s="0"/>
+      <c r="DS19" s="0"/>
+      <c r="DT19" s="0"/>
+      <c r="DU19" s="0"/>
+      <c r="DV19" s="0"/>
+      <c r="DW19" s="0"/>
+      <c r="DX19" s="0"/>
+      <c r="DY19" s="0"/>
+      <c r="DZ19" s="0"/>
+      <c r="EA19" s="0"/>
+      <c r="EB19" s="0"/>
+      <c r="EC19" s="0"/>
+      <c r="ED19" s="0"/>
+      <c r="EE19" s="0"/>
+      <c r="EF19" s="0"/>
+      <c r="EG19" s="0"/>
+      <c r="EH19" s="0"/>
+      <c r="EI19" s="0"/>
+      <c r="EJ19" s="0"/>
+      <c r="EK19" s="0"/>
+      <c r="EL19" s="0"/>
+      <c r="EM19" s="0"/>
+      <c r="EN19" s="0"/>
+      <c r="EO19" s="0"/>
+      <c r="EP19" s="0"/>
+      <c r="EQ19" s="0"/>
+      <c r="ER19" s="0"/>
+      <c r="ES19" s="0"/>
+      <c r="ET19" s="0"/>
+      <c r="EU19" s="0"/>
+      <c r="EV19" s="0"/>
+      <c r="EW19" s="0"/>
+      <c r="EX19" s="0"/>
+      <c r="EY19" s="0"/>
+      <c r="EZ19" s="0"/>
+      <c r="FA19" s="0"/>
+      <c r="FB19" s="0"/>
+      <c r="FC19" s="0"/>
+      <c r="FD19" s="0"/>
+      <c r="FE19" s="0"/>
+      <c r="FF19" s="0"/>
+      <c r="FG19" s="0"/>
+      <c r="FH19" s="0"/>
+      <c r="FI19" s="0"/>
+      <c r="FJ19" s="0"/>
+      <c r="FK19" s="0"/>
+      <c r="FL19" s="0"/>
+      <c r="FM19" s="0"/>
+      <c r="FN19" s="0"/>
+      <c r="FO19" s="0"/>
+      <c r="FP19" s="0"/>
+      <c r="FQ19" s="0"/>
+      <c r="FR19" s="0"/>
+      <c r="FS19" s="0"/>
+      <c r="FT19" s="0"/>
+      <c r="FU19" s="0"/>
+      <c r="FV19" s="0"/>
+      <c r="FW19" s="0"/>
+      <c r="FX19" s="0"/>
+      <c r="FY19" s="0"/>
+      <c r="FZ19" s="0"/>
+      <c r="GA19" s="0"/>
+      <c r="GB19" s="0"/>
+      <c r="GC19" s="0"/>
+      <c r="GD19" s="0"/>
+      <c r="GE19" s="0"/>
+      <c r="GF19" s="0"/>
+      <c r="GG19" s="0"/>
+      <c r="GH19" s="0"/>
+      <c r="GI19" s="0"/>
+      <c r="GJ19" s="0"/>
+      <c r="GK19" s="0"/>
+      <c r="GL19" s="0"/>
+      <c r="GM19" s="0"/>
+      <c r="GN19" s="0"/>
+      <c r="GO19" s="0"/>
+      <c r="GP19" s="0"/>
+      <c r="GQ19" s="0"/>
+      <c r="GR19" s="0"/>
+      <c r="GS19" s="0"/>
+      <c r="GT19" s="0"/>
+      <c r="GU19" s="0"/>
+      <c r="GV19" s="0"/>
+      <c r="GW19" s="0"/>
+      <c r="GX19" s="0"/>
+      <c r="GY19" s="0"/>
+      <c r="GZ19" s="0"/>
+      <c r="HA19" s="0"/>
+      <c r="HB19" s="0"/>
+      <c r="HC19" s="0"/>
+      <c r="HD19" s="0"/>
+      <c r="HE19" s="0"/>
+      <c r="HF19" s="0"/>
+      <c r="HG19" s="0"/>
+      <c r="HH19" s="0"/>
+      <c r="HI19" s="0"/>
+      <c r="HJ19" s="0"/>
+      <c r="HK19" s="0"/>
+      <c r="HL19" s="0"/>
+      <c r="HM19" s="0"/>
+      <c r="HN19" s="0"/>
+      <c r="HO19" s="0"/>
+      <c r="HP19" s="0"/>
+      <c r="HQ19" s="0"/>
+      <c r="HR19" s="0"/>
+      <c r="HS19" s="0"/>
+      <c r="HT19" s="0"/>
+      <c r="HU19" s="0"/>
+      <c r="HV19" s="0"/>
+      <c r="HW19" s="0"/>
+      <c r="HX19" s="0"/>
+      <c r="HY19" s="0"/>
+      <c r="HZ19" s="0"/>
+      <c r="IA19" s="0"/>
+      <c r="IB19" s="0"/>
+      <c r="IC19" s="0"/>
+      <c r="ID19" s="0"/>
+      <c r="IE19" s="0"/>
+      <c r="IF19" s="0"/>
+      <c r="IG19" s="0"/>
+      <c r="IH19" s="0"/>
+      <c r="II19" s="0"/>
+      <c r="IJ19" s="0"/>
+      <c r="IK19" s="0"/>
+      <c r="IL19" s="0"/>
+      <c r="IM19" s="0"/>
+      <c r="IN19" s="0"/>
+      <c r="IO19" s="0"/>
+      <c r="IP19" s="0"/>
+      <c r="IQ19" s="0"/>
+      <c r="IR19" s="0"/>
+      <c r="IS19" s="0"/>
+      <c r="IT19" s="0"/>
+      <c r="IU19" s="0"/>
+      <c r="IV19" s="0"/>
+      <c r="IW19" s="0"/>
+      <c r="IX19" s="0"/>
+      <c r="IY19" s="0"/>
+      <c r="IZ19" s="0"/>
+      <c r="JA19" s="0"/>
+      <c r="JB19" s="0"/>
+      <c r="JC19" s="0"/>
+      <c r="JD19" s="0"/>
+      <c r="JE19" s="0"/>
+      <c r="JF19" s="0"/>
+      <c r="JG19" s="0"/>
+      <c r="JH19" s="0"/>
+      <c r="JI19" s="0"/>
+      <c r="JJ19" s="0"/>
+      <c r="JK19" s="0"/>
+      <c r="JL19" s="0"/>
+      <c r="JM19" s="0"/>
+      <c r="JN19" s="0"/>
+      <c r="JO19" s="0"/>
+      <c r="JP19" s="0"/>
+      <c r="JQ19" s="0"/>
+      <c r="JR19" s="0"/>
+      <c r="JS19" s="0"/>
+      <c r="JT19" s="0"/>
+      <c r="JU19" s="0"/>
+      <c r="JV19" s="0"/>
+      <c r="JW19" s="0"/>
+      <c r="JX19" s="0"/>
+      <c r="JY19" s="0"/>
+      <c r="JZ19" s="0"/>
+      <c r="KA19" s="0"/>
+      <c r="KB19" s="0"/>
+      <c r="KC19" s="0"/>
+      <c r="KD19" s="0"/>
+      <c r="KE19" s="0"/>
+      <c r="KF19" s="0"/>
+      <c r="KG19" s="0"/>
+      <c r="KH19" s="0"/>
+      <c r="KI19" s="0"/>
+      <c r="KJ19" s="0"/>
+      <c r="KK19" s="0"/>
+      <c r="KL19" s="0"/>
+      <c r="KM19" s="0"/>
+      <c r="KN19" s="0"/>
+      <c r="KO19" s="0"/>
+      <c r="KP19" s="0"/>
+      <c r="KQ19" s="0"/>
+      <c r="KR19" s="0"/>
+      <c r="KS19" s="0"/>
+      <c r="KT19" s="0"/>
+      <c r="KU19" s="0"/>
+      <c r="KV19" s="0"/>
+      <c r="KW19" s="0"/>
+      <c r="KX19" s="0"/>
+      <c r="KY19" s="0"/>
+      <c r="KZ19" s="0"/>
+      <c r="LA19" s="0"/>
+      <c r="LB19" s="0"/>
+      <c r="LC19" s="0"/>
+      <c r="LD19" s="0"/>
+      <c r="LE19" s="0"/>
+      <c r="LF19" s="0"/>
+      <c r="LG19" s="0"/>
+      <c r="LH19" s="0"/>
+      <c r="LI19" s="0"/>
+      <c r="LJ19" s="0"/>
+      <c r="LK19" s="0"/>
+      <c r="LL19" s="0"/>
+      <c r="LM19" s="0"/>
+      <c r="LN19" s="0"/>
+      <c r="LO19" s="0"/>
+      <c r="LP19" s="0"/>
+      <c r="LQ19" s="0"/>
+      <c r="LR19" s="0"/>
+      <c r="LS19" s="0"/>
+      <c r="LT19" s="0"/>
+      <c r="LU19" s="0"/>
+      <c r="LV19" s="0"/>
+      <c r="LW19" s="0"/>
+      <c r="LX19" s="0"/>
+      <c r="LY19" s="0"/>
+      <c r="LZ19" s="0"/>
+      <c r="MA19" s="0"/>
+      <c r="MB19" s="0"/>
+      <c r="MC19" s="0"/>
+      <c r="MD19" s="0"/>
+      <c r="ME19" s="0"/>
+      <c r="MF19" s="0"/>
+      <c r="MG19" s="0"/>
+      <c r="MH19" s="0"/>
+      <c r="MI19" s="0"/>
+      <c r="MJ19" s="0"/>
+      <c r="MK19" s="0"/>
+      <c r="ML19" s="0"/>
+      <c r="MM19" s="0"/>
+      <c r="MN19" s="0"/>
+      <c r="MO19" s="0"/>
+      <c r="MP19" s="0"/>
+      <c r="MQ19" s="0"/>
+      <c r="MR19" s="0"/>
+      <c r="MS19" s="0"/>
+      <c r="MT19" s="0"/>
+      <c r="MU19" s="0"/>
+      <c r="MV19" s="0"/>
+      <c r="MW19" s="0"/>
+      <c r="MX19" s="0"/>
+      <c r="MY19" s="0"/>
+      <c r="MZ19" s="0"/>
+      <c r="NA19" s="0"/>
+      <c r="NB19" s="0"/>
+      <c r="NC19" s="0"/>
+      <c r="ND19" s="0"/>
+      <c r="NE19" s="0"/>
+      <c r="NF19" s="0"/>
+      <c r="NG19" s="0"/>
+      <c r="NH19" s="0"/>
+      <c r="NI19" s="0"/>
+      <c r="NJ19" s="0"/>
+      <c r="NK19" s="0"/>
+      <c r="NL19" s="0"/>
+      <c r="NM19" s="0"/>
+      <c r="NN19" s="0"/>
+      <c r="NO19" s="0"/>
+      <c r="NP19" s="0"/>
+      <c r="NQ19" s="0"/>
+      <c r="NR19" s="0"/>
+      <c r="NS19" s="0"/>
+      <c r="NT19" s="0"/>
+      <c r="NU19" s="0"/>
+      <c r="NV19" s="0"/>
+      <c r="NW19" s="0"/>
+      <c r="NX19" s="0"/>
+      <c r="NY19" s="0"/>
+      <c r="NZ19" s="0"/>
+      <c r="OA19" s="0"/>
+      <c r="OB19" s="0"/>
+      <c r="OC19" s="0"/>
+      <c r="OD19" s="0"/>
+      <c r="OE19" s="0"/>
+      <c r="OF19" s="0"/>
+      <c r="OG19" s="0"/>
+      <c r="OH19" s="0"/>
+      <c r="OI19" s="0"/>
+      <c r="OJ19" s="0"/>
+      <c r="OK19" s="0"/>
+      <c r="OL19" s="0"/>
+      <c r="OM19" s="0"/>
+      <c r="ON19" s="0"/>
+      <c r="OO19" s="0"/>
+      <c r="OP19" s="0"/>
+      <c r="OQ19" s="0"/>
+      <c r="OR19" s="0"/>
+      <c r="OS19" s="0"/>
+      <c r="OT19" s="0"/>
+      <c r="OU19" s="0"/>
+      <c r="OV19" s="0"/>
+      <c r="OW19" s="0"/>
+      <c r="OX19" s="0"/>
+      <c r="OY19" s="0"/>
+      <c r="OZ19" s="0"/>
+      <c r="PA19" s="0"/>
+      <c r="PB19" s="0"/>
+      <c r="PC19" s="0"/>
+      <c r="PD19" s="0"/>
+      <c r="PE19" s="0"/>
+      <c r="PF19" s="0"/>
+      <c r="PG19" s="0"/>
+      <c r="PH19" s="0"/>
+      <c r="PI19" s="0"/>
+      <c r="PJ19" s="0"/>
+      <c r="PK19" s="0"/>
+      <c r="PL19" s="0"/>
+      <c r="PM19" s="0"/>
+      <c r="PN19" s="0"/>
+      <c r="PO19" s="0"/>
+      <c r="PP19" s="0"/>
+      <c r="PQ19" s="0"/>
+      <c r="PR19" s="0"/>
+      <c r="PS19" s="0"/>
+      <c r="PT19" s="0"/>
+      <c r="PU19" s="0"/>
+      <c r="PV19" s="0"/>
+      <c r="PW19" s="0"/>
+      <c r="PX19" s="0"/>
+      <c r="PY19" s="0"/>
+      <c r="PZ19" s="0"/>
+      <c r="QA19" s="0"/>
+      <c r="QB19" s="0"/>
+      <c r="QC19" s="0"/>
+      <c r="QD19" s="0"/>
+      <c r="QE19" s="0"/>
+      <c r="QF19" s="0"/>
+      <c r="QG19" s="0"/>
+      <c r="QH19" s="0"/>
+      <c r="QI19" s="0"/>
+      <c r="QJ19" s="0"/>
+      <c r="QK19" s="0"/>
+      <c r="QL19" s="0"/>
+      <c r="QM19" s="0"/>
+      <c r="QN19" s="0"/>
+      <c r="QO19" s="0"/>
+      <c r="QP19" s="0"/>
+      <c r="QQ19" s="0"/>
+      <c r="QR19" s="0"/>
+      <c r="QS19" s="0"/>
+      <c r="QT19" s="0"/>
+      <c r="QU19" s="0"/>
+      <c r="QV19" s="0"/>
+      <c r="QW19" s="0"/>
+      <c r="QX19" s="0"/>
+      <c r="QY19" s="0"/>
+      <c r="QZ19" s="0"/>
+      <c r="RA19" s="0"/>
+      <c r="RB19" s="0"/>
+      <c r="RC19" s="0"/>
+      <c r="RD19" s="0"/>
+      <c r="RE19" s="0"/>
+      <c r="RF19" s="0"/>
+      <c r="RG19" s="0"/>
+      <c r="RH19" s="0"/>
+      <c r="RI19" s="0"/>
+      <c r="RJ19" s="0"/>
+      <c r="RK19" s="0"/>
+      <c r="RL19" s="0"/>
+      <c r="RM19" s="0"/>
+      <c r="RN19" s="0"/>
+      <c r="RO19" s="0"/>
+      <c r="RP19" s="0"/>
+      <c r="RQ19" s="0"/>
+      <c r="RR19" s="0"/>
+      <c r="RS19" s="0"/>
+      <c r="RT19" s="0"/>
+      <c r="RU19" s="0"/>
+      <c r="RV19" s="0"/>
+      <c r="RW19" s="0"/>
+      <c r="RX19" s="0"/>
+      <c r="RY19" s="0"/>
+      <c r="RZ19" s="0"/>
+      <c r="SA19" s="0"/>
+      <c r="SB19" s="0"/>
+      <c r="SC19" s="0"/>
+      <c r="SD19" s="0"/>
+      <c r="SE19" s="0"/>
+      <c r="SF19" s="0"/>
+      <c r="SG19" s="0"/>
+      <c r="SH19" s="0"/>
+      <c r="SI19" s="0"/>
+      <c r="SJ19" s="0"/>
+      <c r="SK19" s="0"/>
+      <c r="SL19" s="0"/>
+      <c r="SM19" s="0"/>
+      <c r="SN19" s="0"/>
+      <c r="SO19" s="0"/>
+      <c r="SP19" s="0"/>
+      <c r="SQ19" s="0"/>
+      <c r="SR19" s="0"/>
+      <c r="SS19" s="0"/>
+      <c r="ST19" s="0"/>
+      <c r="SU19" s="0"/>
+      <c r="SV19" s="0"/>
+      <c r="SW19" s="0"/>
+      <c r="SX19" s="0"/>
+      <c r="SY19" s="0"/>
+      <c r="SZ19" s="0"/>
+      <c r="TA19" s="0"/>
+      <c r="TB19" s="0"/>
+      <c r="TC19" s="0"/>
+      <c r="TD19" s="0"/>
+      <c r="TE19" s="0"/>
+      <c r="TF19" s="0"/>
+      <c r="TG19" s="0"/>
+      <c r="TH19" s="0"/>
+      <c r="TI19" s="0"/>
+      <c r="TJ19" s="0"/>
+      <c r="TK19" s="0"/>
+      <c r="TL19" s="0"/>
+      <c r="TM19" s="0"/>
+      <c r="TN19" s="0"/>
+      <c r="TO19" s="0"/>
+      <c r="TP19" s="0"/>
+      <c r="TQ19" s="0"/>
+      <c r="TR19" s="0"/>
+      <c r="TS19" s="0"/>
+      <c r="TT19" s="0"/>
+      <c r="TU19" s="0"/>
+      <c r="TV19" s="0"/>
+      <c r="TW19" s="0"/>
+      <c r="TX19" s="0"/>
+      <c r="TY19" s="0"/>
+      <c r="TZ19" s="0"/>
+      <c r="UA19" s="0"/>
+      <c r="UB19" s="0"/>
+      <c r="UC19" s="0"/>
+      <c r="UD19" s="0"/>
+      <c r="UE19" s="0"/>
+      <c r="UF19" s="0"/>
+      <c r="UG19" s="0"/>
+      <c r="UH19" s="0"/>
+      <c r="UI19" s="0"/>
+      <c r="UJ19" s="0"/>
+      <c r="UK19" s="0"/>
+      <c r="UL19" s="0"/>
+      <c r="UM19" s="0"/>
+      <c r="UN19" s="0"/>
+      <c r="UO19" s="0"/>
+      <c r="UP19" s="0"/>
+      <c r="UQ19" s="0"/>
+      <c r="UR19" s="0"/>
+      <c r="US19" s="0"/>
+      <c r="UT19" s="0"/>
+      <c r="UU19" s="0"/>
+      <c r="UV19" s="0"/>
+      <c r="UW19" s="0"/>
+      <c r="UX19" s="0"/>
+      <c r="UY19" s="0"/>
+      <c r="UZ19" s="0"/>
+      <c r="VA19" s="0"/>
+      <c r="VB19" s="0"/>
+      <c r="VC19" s="0"/>
+      <c r="VD19" s="0"/>
+      <c r="VE19" s="0"/>
+      <c r="VF19" s="0"/>
+      <c r="VG19" s="0"/>
+      <c r="VH19" s="0"/>
+      <c r="VI19" s="0"/>
+      <c r="VJ19" s="0"/>
+      <c r="VK19" s="0"/>
+      <c r="VL19" s="0"/>
+      <c r="VM19" s="0"/>
+      <c r="VN19" s="0"/>
+      <c r="VO19" s="0"/>
+      <c r="VP19" s="0"/>
+      <c r="VQ19" s="0"/>
+      <c r="VR19" s="0"/>
+      <c r="VS19" s="0"/>
+      <c r="VT19" s="0"/>
+      <c r="VU19" s="0"/>
+      <c r="VV19" s="0"/>
+      <c r="VW19" s="0"/>
+      <c r="VX19" s="0"/>
+      <c r="VY19" s="0"/>
+      <c r="VZ19" s="0"/>
+      <c r="WA19" s="0"/>
+      <c r="WB19" s="0"/>
+      <c r="WC19" s="0"/>
+      <c r="WD19" s="0"/>
+      <c r="WE19" s="0"/>
+      <c r="WF19" s="0"/>
+      <c r="WG19" s="0"/>
+      <c r="WH19" s="0"/>
+      <c r="WI19" s="0"/>
+      <c r="WJ19" s="0"/>
+      <c r="WK19" s="0"/>
+      <c r="WL19" s="0"/>
+      <c r="WM19" s="0"/>
+      <c r="WN19" s="0"/>
+      <c r="WO19" s="0"/>
+      <c r="WP19" s="0"/>
+      <c r="WQ19" s="0"/>
+      <c r="WR19" s="0"/>
+      <c r="WS19" s="0"/>
+      <c r="WT19" s="0"/>
+      <c r="WU19" s="0"/>
+      <c r="WV19" s="0"/>
+      <c r="WW19" s="0"/>
+      <c r="WX19" s="0"/>
+      <c r="WY19" s="0"/>
+      <c r="WZ19" s="0"/>
+      <c r="XA19" s="0"/>
+      <c r="XB19" s="0"/>
+      <c r="XC19" s="0"/>
+      <c r="XD19" s="0"/>
+      <c r="XE19" s="0"/>
+      <c r="XF19" s="0"/>
+      <c r="XG19" s="0"/>
+      <c r="XH19" s="0"/>
+      <c r="XI19" s="0"/>
+      <c r="XJ19" s="0"/>
+      <c r="XK19" s="0"/>
+      <c r="XL19" s="0"/>
+      <c r="XM19" s="0"/>
+      <c r="XN19" s="0"/>
+      <c r="XO19" s="0"/>
+      <c r="XP19" s="0"/>
+      <c r="XQ19" s="0"/>
+      <c r="XR19" s="0"/>
+      <c r="XS19" s="0"/>
+      <c r="XT19" s="0"/>
+      <c r="XU19" s="0"/>
+      <c r="XV19" s="0"/>
+      <c r="XW19" s="0"/>
+      <c r="XX19" s="0"/>
+      <c r="XY19" s="0"/>
+      <c r="XZ19" s="0"/>
+      <c r="YA19" s="0"/>
+      <c r="YB19" s="0"/>
+      <c r="YC19" s="0"/>
+      <c r="YD19" s="0"/>
+      <c r="YE19" s="0"/>
+      <c r="YF19" s="0"/>
+      <c r="YG19" s="0"/>
+      <c r="YH19" s="0"/>
+      <c r="YI19" s="0"/>
+      <c r="YJ19" s="0"/>
+      <c r="YK19" s="0"/>
+      <c r="YL19" s="0"/>
+      <c r="YM19" s="0"/>
+      <c r="YN19" s="0"/>
+      <c r="YO19" s="0"/>
+      <c r="YP19" s="0"/>
+      <c r="YQ19" s="0"/>
+      <c r="YR19" s="0"/>
+      <c r="YS19" s="0"/>
+      <c r="YT19" s="0"/>
+      <c r="YU19" s="0"/>
+      <c r="YV19" s="0"/>
+      <c r="YW19" s="0"/>
+      <c r="YX19" s="0"/>
+      <c r="YY19" s="0"/>
+      <c r="YZ19" s="0"/>
+      <c r="ZA19" s="0"/>
+      <c r="ZB19" s="0"/>
+      <c r="ZC19" s="0"/>
+      <c r="ZD19" s="0"/>
+      <c r="ZE19" s="0"/>
+      <c r="ZF19" s="0"/>
+      <c r="ZG19" s="0"/>
+      <c r="ZH19" s="0"/>
+      <c r="ZI19" s="0"/>
+      <c r="ZJ19" s="0"/>
+      <c r="ZK19" s="0"/>
+      <c r="ZL19" s="0"/>
+      <c r="ZM19" s="0"/>
+      <c r="ZN19" s="0"/>
+      <c r="ZO19" s="0"/>
+      <c r="ZP19" s="0"/>
+      <c r="ZQ19" s="0"/>
+      <c r="ZR19" s="0"/>
+      <c r="ZS19" s="0"/>
+      <c r="ZT19" s="0"/>
+      <c r="ZU19" s="0"/>
+      <c r="ZV19" s="0"/>
+      <c r="ZW19" s="0"/>
+      <c r="ZX19" s="0"/>
+      <c r="ZY19" s="0"/>
+      <c r="ZZ19" s="0"/>
+      <c r="AAA19" s="0"/>
+      <c r="AAB19" s="0"/>
+      <c r="AAC19" s="0"/>
+      <c r="AAD19" s="0"/>
+      <c r="AAE19" s="0"/>
+      <c r="AAF19" s="0"/>
+      <c r="AAG19" s="0"/>
+      <c r="AAH19" s="0"/>
+      <c r="AAI19" s="0"/>
+      <c r="AAJ19" s="0"/>
+      <c r="AAK19" s="0"/>
+      <c r="AAL19" s="0"/>
+      <c r="AAM19" s="0"/>
+      <c r="AAN19" s="0"/>
+      <c r="AAO19" s="0"/>
+      <c r="AAP19" s="0"/>
+      <c r="AAQ19" s="0"/>
+      <c r="AAR19" s="0"/>
+      <c r="AAS19" s="0"/>
+      <c r="AAT19" s="0"/>
+      <c r="AAU19" s="0"/>
+      <c r="AAV19" s="0"/>
+      <c r="AAW19" s="0"/>
+      <c r="AAX19" s="0"/>
+      <c r="AAY19" s="0"/>
+      <c r="AAZ19" s="0"/>
+      <c r="ABA19" s="0"/>
+      <c r="ABB19" s="0"/>
+      <c r="ABC19" s="0"/>
+      <c r="ABD19" s="0"/>
+      <c r="ABE19" s="0"/>
+      <c r="ABF19" s="0"/>
+      <c r="ABG19" s="0"/>
+      <c r="ABH19" s="0"/>
+      <c r="ABI19" s="0"/>
+      <c r="ABJ19" s="0"/>
+      <c r="ABK19" s="0"/>
+      <c r="ABL19" s="0"/>
+      <c r="ABM19" s="0"/>
+      <c r="ABN19" s="0"/>
+      <c r="ABO19" s="0"/>
+      <c r="ABP19" s="0"/>
+      <c r="ABQ19" s="0"/>
+      <c r="ABR19" s="0"/>
+      <c r="ABS19" s="0"/>
+      <c r="ABT19" s="0"/>
+      <c r="ABU19" s="0"/>
+      <c r="ABV19" s="0"/>
+      <c r="ABW19" s="0"/>
+      <c r="ABX19" s="0"/>
+      <c r="ABY19" s="0"/>
+      <c r="ABZ19" s="0"/>
+      <c r="ACA19" s="0"/>
+      <c r="ACB19" s="0"/>
+      <c r="ACC19" s="0"/>
+      <c r="ACD19" s="0"/>
+      <c r="ACE19" s="0"/>
+      <c r="ACF19" s="0"/>
+      <c r="ACG19" s="0"/>
+      <c r="ACH19" s="0"/>
+      <c r="ACI19" s="0"/>
+      <c r="ACJ19" s="0"/>
+      <c r="ACK19" s="0"/>
+      <c r="ACL19" s="0"/>
+      <c r="ACM19" s="0"/>
+      <c r="ACN19" s="0"/>
+      <c r="ACO19" s="0"/>
+      <c r="ACP19" s="0"/>
+      <c r="ACQ19" s="0"/>
+      <c r="ACR19" s="0"/>
+      <c r="ACS19" s="0"/>
+      <c r="ACT19" s="0"/>
+      <c r="ACU19" s="0"/>
+      <c r="ACV19" s="0"/>
+      <c r="ACW19" s="0"/>
+      <c r="ACX19" s="0"/>
+      <c r="ACY19" s="0"/>
+      <c r="ACZ19" s="0"/>
+      <c r="ADA19" s="0"/>
+      <c r="ADB19" s="0"/>
+      <c r="ADC19" s="0"/>
+      <c r="ADD19" s="0"/>
+      <c r="ADE19" s="0"/>
+      <c r="ADF19" s="0"/>
+      <c r="ADG19" s="0"/>
+      <c r="ADH19" s="0"/>
+      <c r="ADI19" s="0"/>
+      <c r="ADJ19" s="0"/>
+      <c r="ADK19" s="0"/>
+      <c r="ADL19" s="0"/>
+      <c r="ADM19" s="0"/>
+      <c r="ADN19" s="0"/>
+      <c r="ADO19" s="0"/>
+      <c r="ADP19" s="0"/>
+      <c r="ADQ19" s="0"/>
+      <c r="ADR19" s="0"/>
+      <c r="ADS19" s="0"/>
+      <c r="ADT19" s="0"/>
+      <c r="ADU19" s="0"/>
+      <c r="ADV19" s="0"/>
+      <c r="ADW19" s="0"/>
+      <c r="ADX19" s="0"/>
+      <c r="ADY19" s="0"/>
+      <c r="ADZ19" s="0"/>
+      <c r="AEA19" s="0"/>
+      <c r="AEB19" s="0"/>
+      <c r="AEC19" s="0"/>
+      <c r="AED19" s="0"/>
+      <c r="AEE19" s="0"/>
+      <c r="AEF19" s="0"/>
+      <c r="AEG19" s="0"/>
+      <c r="AEH19" s="0"/>
+      <c r="AEI19" s="0"/>
+      <c r="AEJ19" s="0"/>
+      <c r="AEK19" s="0"/>
+      <c r="AEL19" s="0"/>
+      <c r="AEM19" s="0"/>
+      <c r="AEN19" s="0"/>
+      <c r="AEO19" s="0"/>
+      <c r="AEP19" s="0"/>
+      <c r="AEQ19" s="0"/>
+      <c r="AER19" s="0"/>
+      <c r="AES19" s="0"/>
+      <c r="AET19" s="0"/>
+      <c r="AEU19" s="0"/>
+      <c r="AEV19" s="0"/>
+      <c r="AEW19" s="0"/>
+      <c r="AEX19" s="0"/>
+      <c r="AEY19" s="0"/>
+      <c r="AEZ19" s="0"/>
+      <c r="AFA19" s="0"/>
+      <c r="AFB19" s="0"/>
+      <c r="AFC19" s="0"/>
+      <c r="AFD19" s="0"/>
+      <c r="AFE19" s="0"/>
+      <c r="AFF19" s="0"/>
+      <c r="AFG19" s="0"/>
+      <c r="AFH19" s="0"/>
+      <c r="AFI19" s="0"/>
+      <c r="AFJ19" s="0"/>
+      <c r="AFK19" s="0"/>
+      <c r="AFL19" s="0"/>
+      <c r="AFM19" s="0"/>
+      <c r="AFN19" s="0"/>
+      <c r="AFO19" s="0"/>
+      <c r="AFP19" s="0"/>
+      <c r="AFQ19" s="0"/>
+      <c r="AFR19" s="0"/>
+      <c r="AFS19" s="0"/>
+      <c r="AFT19" s="0"/>
+      <c r="AFU19" s="0"/>
+      <c r="AFV19" s="0"/>
+      <c r="AFW19" s="0"/>
+      <c r="AFX19" s="0"/>
+      <c r="AFY19" s="0"/>
+      <c r="AFZ19" s="0"/>
+      <c r="AGA19" s="0"/>
+      <c r="AGB19" s="0"/>
+      <c r="AGC19" s="0"/>
+      <c r="AGD19" s="0"/>
+      <c r="AGE19" s="0"/>
+      <c r="AGF19" s="0"/>
+      <c r="AGG19" s="0"/>
+      <c r="AGH19" s="0"/>
+      <c r="AGI19" s="0"/>
+      <c r="AGJ19" s="0"/>
+      <c r="AGK19" s="0"/>
+      <c r="AGL19" s="0"/>
+      <c r="AGM19" s="0"/>
+      <c r="AGN19" s="0"/>
+      <c r="AGO19" s="0"/>
+      <c r="AGP19" s="0"/>
+      <c r="AGQ19" s="0"/>
+      <c r="AGR19" s="0"/>
+      <c r="AGS19" s="0"/>
+      <c r="AGT19" s="0"/>
+      <c r="AGU19" s="0"/>
+      <c r="AGV19" s="0"/>
+      <c r="AGW19" s="0"/>
+      <c r="AGX19" s="0"/>
+      <c r="AGY19" s="0"/>
+      <c r="AGZ19" s="0"/>
+      <c r="AHA19" s="0"/>
+      <c r="AHB19" s="0"/>
+      <c r="AHC19" s="0"/>
+      <c r="AHD19" s="0"/>
+      <c r="AHE19" s="0"/>
+      <c r="AHF19" s="0"/>
+      <c r="AHG19" s="0"/>
+      <c r="AHH19" s="0"/>
+      <c r="AHI19" s="0"/>
+      <c r="AHJ19" s="0"/>
+      <c r="AHK19" s="0"/>
+      <c r="AHL19" s="0"/>
+      <c r="AHM19" s="0"/>
+      <c r="AHN19" s="0"/>
+      <c r="AHO19" s="0"/>
+      <c r="AHP19" s="0"/>
+      <c r="AHQ19" s="0"/>
+      <c r="AHR19" s="0"/>
+      <c r="AHS19" s="0"/>
+      <c r="AHT19" s="0"/>
+      <c r="AHU19" s="0"/>
+      <c r="AHV19" s="0"/>
+      <c r="AHW19" s="0"/>
+      <c r="AHX19" s="0"/>
+      <c r="AHY19" s="0"/>
+      <c r="AHZ19" s="0"/>
+      <c r="AIA19" s="0"/>
+      <c r="AIB19" s="0"/>
+      <c r="AIC19" s="0"/>
+      <c r="AID19" s="0"/>
+      <c r="AIE19" s="0"/>
+      <c r="AIF19" s="0"/>
+      <c r="AIG19" s="0"/>
+      <c r="AIH19" s="0"/>
+      <c r="AII19" s="0"/>
+      <c r="AIJ19" s="0"/>
+      <c r="AIK19" s="0"/>
+      <c r="AIL19" s="0"/>
+      <c r="AIM19" s="0"/>
+      <c r="AIN19" s="0"/>
+      <c r="AIO19" s="0"/>
+      <c r="AIP19" s="0"/>
+      <c r="AIQ19" s="0"/>
+      <c r="AIR19" s="0"/>
+      <c r="AIS19" s="0"/>
+      <c r="AIT19" s="0"/>
+      <c r="AIU19" s="0"/>
+      <c r="AIV19" s="0"/>
+      <c r="AIW19" s="0"/>
+      <c r="AIX19" s="0"/>
+      <c r="AIY19" s="0"/>
+      <c r="AIZ19" s="0"/>
+      <c r="AJA19" s="0"/>
+      <c r="AJB19" s="0"/>
+      <c r="AJC19" s="0"/>
+      <c r="AJD19" s="0"/>
+      <c r="AJE19" s="0"/>
+      <c r="AJF19" s="0"/>
+      <c r="AJG19" s="0"/>
+      <c r="AJH19" s="0"/>
+      <c r="AJI19" s="0"/>
+      <c r="AJJ19" s="0"/>
+      <c r="AJK19" s="0"/>
+      <c r="AJL19" s="0"/>
+      <c r="AJM19" s="0"/>
+      <c r="AJN19" s="0"/>
+      <c r="AJO19" s="0"/>
+      <c r="AJP19" s="0"/>
+      <c r="AJQ19" s="0"/>
+      <c r="AJR19" s="0"/>
+      <c r="AJS19" s="0"/>
+      <c r="AJT19" s="0"/>
+      <c r="AJU19" s="0"/>
+      <c r="AJV19" s="0"/>
+      <c r="AJW19" s="0"/>
+      <c r="AJX19" s="0"/>
+      <c r="AJY19" s="0"/>
+      <c r="AJZ19" s="0"/>
+      <c r="AKA19" s="0"/>
+      <c r="AKB19" s="0"/>
+      <c r="AKC19" s="0"/>
+      <c r="AKD19" s="0"/>
+      <c r="AKE19" s="0"/>
+      <c r="AKF19" s="0"/>
+      <c r="AKG19" s="0"/>
+      <c r="AKH19" s="0"/>
+      <c r="AKI19" s="0"/>
+      <c r="AKJ19" s="0"/>
+      <c r="AKK19" s="0"/>
+      <c r="AKL19" s="0"/>
+      <c r="AKM19" s="0"/>
+      <c r="AKN19" s="0"/>
+      <c r="AKO19" s="0"/>
+      <c r="AKP19" s="0"/>
+      <c r="AKQ19" s="0"/>
+      <c r="AKR19" s="0"/>
+      <c r="AKS19" s="0"/>
+      <c r="AKT19" s="0"/>
+      <c r="AKU19" s="0"/>
+      <c r="AKV19" s="0"/>
+      <c r="AKW19" s="0"/>
+      <c r="AKX19" s="0"/>
+      <c r="AKY19" s="0"/>
+      <c r="AKZ19" s="0"/>
+      <c r="ALA19" s="0"/>
+      <c r="ALB19" s="0"/>
+      <c r="ALC19" s="0"/>
+      <c r="ALD19" s="0"/>
+      <c r="ALE19" s="0"/>
+      <c r="ALF19" s="0"/>
+      <c r="ALG19" s="0"/>
+      <c r="ALH19" s="0"/>
+      <c r="ALI19" s="0"/>
+      <c r="ALJ19" s="0"/>
+      <c r="ALK19" s="0"/>
+      <c r="ALL19" s="0"/>
+      <c r="ALM19" s="0"/>
+      <c r="ALN19" s="0"/>
+      <c r="ALO19" s="0"/>
+      <c r="ALP19" s="0"/>
+      <c r="ALQ19" s="0"/>
+      <c r="ALR19" s="0"/>
+      <c r="ALS19" s="0"/>
+      <c r="ALT19" s="0"/>
+      <c r="ALU19" s="0"/>
+      <c r="ALV19" s="0"/>
+      <c r="ALW19" s="0"/>
+      <c r="ALX19" s="0"/>
+      <c r="ALY19" s="0"/>
+      <c r="ALZ19" s="0"/>
+      <c r="AMA19" s="0"/>
+      <c r="AMB19" s="0"/>
+      <c r="AMC19" s="0"/>
+      <c r="AMD19" s="0"/>
+      <c r="AME19" s="0"/>
+      <c r="AMF19" s="0"/>
+      <c r="AMG19" s="0"/>
+      <c r="AMH19" s="0"/>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="80" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B20" s="80" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C20" s="80" t="s">
         <v>1695</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="D20" s="80" t="s">
         <v>1696</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="E20" s="80" t="s">
         <v>1697</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>1698</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -38321,16 +39349,16 @@
     </row>
     <row r="21" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="80" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B21" s="80" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C21" s="80" t="s">
         <v>1699</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="D21" s="80" t="s">
         <v>1700</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>1701</v>
       </c>
       <c r="E21" s="78"/>
       <c r="F21" s="0"/>
@@ -39355,16 +40383,16 @@
     </row>
     <row r="22" customFormat="false" ht="283.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="80" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B22" s="80" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>1702</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="D22" s="80" t="s">
         <v>1703</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>1704</v>
       </c>
       <c r="E22" s="78"/>
       <c r="F22" s="0"/>
@@ -40389,16 +41417,16 @@
     </row>
     <row r="23" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="80" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B23" s="80" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C23" s="80" t="s">
         <v>1705</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="D23" s="80" t="s">
         <v>1706</v>
-      </c>
-      <c r="D23" s="80" t="s">
-        <v>1707</v>
       </c>
       <c r="E23" s="78"/>
       <c r="F23" s="0"/>
@@ -41423,34 +42451,1053 @@
     </row>
     <row r="24" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C24" s="79" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D24" s="79" t="s">
         <v>1708</v>
       </c>
-      <c r="D24" s="79" t="s">
-        <v>1709</v>
-      </c>
       <c r="E24" s="78"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+      <c r="AY24" s="0"/>
+      <c r="AZ24" s="0"/>
+      <c r="BA24" s="0"/>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+      <c r="BH24" s="0"/>
+      <c r="BI24" s="0"/>
+      <c r="BJ24" s="0"/>
+      <c r="BK24" s="0"/>
+      <c r="BL24" s="0"/>
+      <c r="BM24" s="0"/>
+      <c r="BN24" s="0"/>
+      <c r="BO24" s="0"/>
+      <c r="BP24" s="0"/>
+      <c r="BQ24" s="0"/>
+      <c r="BR24" s="0"/>
+      <c r="BS24" s="0"/>
+      <c r="BT24" s="0"/>
+      <c r="BU24" s="0"/>
+      <c r="BV24" s="0"/>
+      <c r="BW24" s="0"/>
+      <c r="BX24" s="0"/>
+      <c r="BY24" s="0"/>
+      <c r="BZ24" s="0"/>
+      <c r="CA24" s="0"/>
+      <c r="CB24" s="0"/>
+      <c r="CC24" s="0"/>
+      <c r="CD24" s="0"/>
+      <c r="CE24" s="0"/>
+      <c r="CF24" s="0"/>
+      <c r="CG24" s="0"/>
+      <c r="CH24" s="0"/>
+      <c r="CI24" s="0"/>
+      <c r="CJ24" s="0"/>
+      <c r="CK24" s="0"/>
+      <c r="CL24" s="0"/>
+      <c r="CM24" s="0"/>
+      <c r="CN24" s="0"/>
+      <c r="CO24" s="0"/>
+      <c r="CP24" s="0"/>
+      <c r="CQ24" s="0"/>
+      <c r="CR24" s="0"/>
+      <c r="CS24" s="0"/>
+      <c r="CT24" s="0"/>
+      <c r="CU24" s="0"/>
+      <c r="CV24" s="0"/>
+      <c r="CW24" s="0"/>
+      <c r="CX24" s="0"/>
+      <c r="CY24" s="0"/>
+      <c r="CZ24" s="0"/>
+      <c r="DA24" s="0"/>
+      <c r="DB24" s="0"/>
+      <c r="DC24" s="0"/>
+      <c r="DD24" s="0"/>
+      <c r="DE24" s="0"/>
+      <c r="DF24" s="0"/>
+      <c r="DG24" s="0"/>
+      <c r="DH24" s="0"/>
+      <c r="DI24" s="0"/>
+      <c r="DJ24" s="0"/>
+      <c r="DK24" s="0"/>
+      <c r="DL24" s="0"/>
+      <c r="DM24" s="0"/>
+      <c r="DN24" s="0"/>
+      <c r="DO24" s="0"/>
+      <c r="DP24" s="0"/>
+      <c r="DQ24" s="0"/>
+      <c r="DR24" s="0"/>
+      <c r="DS24" s="0"/>
+      <c r="DT24" s="0"/>
+      <c r="DU24" s="0"/>
+      <c r="DV24" s="0"/>
+      <c r="DW24" s="0"/>
+      <c r="DX24" s="0"/>
+      <c r="DY24" s="0"/>
+      <c r="DZ24" s="0"/>
+      <c r="EA24" s="0"/>
+      <c r="EB24" s="0"/>
+      <c r="EC24" s="0"/>
+      <c r="ED24" s="0"/>
+      <c r="EE24" s="0"/>
+      <c r="EF24" s="0"/>
+      <c r="EG24" s="0"/>
+      <c r="EH24" s="0"/>
+      <c r="EI24" s="0"/>
+      <c r="EJ24" s="0"/>
+      <c r="EK24" s="0"/>
+      <c r="EL24" s="0"/>
+      <c r="EM24" s="0"/>
+      <c r="EN24" s="0"/>
+      <c r="EO24" s="0"/>
+      <c r="EP24" s="0"/>
+      <c r="EQ24" s="0"/>
+      <c r="ER24" s="0"/>
+      <c r="ES24" s="0"/>
+      <c r="ET24" s="0"/>
+      <c r="EU24" s="0"/>
+      <c r="EV24" s="0"/>
+      <c r="EW24" s="0"/>
+      <c r="EX24" s="0"/>
+      <c r="EY24" s="0"/>
+      <c r="EZ24" s="0"/>
+      <c r="FA24" s="0"/>
+      <c r="FB24" s="0"/>
+      <c r="FC24" s="0"/>
+      <c r="FD24" s="0"/>
+      <c r="FE24" s="0"/>
+      <c r="FF24" s="0"/>
+      <c r="FG24" s="0"/>
+      <c r="FH24" s="0"/>
+      <c r="FI24" s="0"/>
+      <c r="FJ24" s="0"/>
+      <c r="FK24" s="0"/>
+      <c r="FL24" s="0"/>
+      <c r="FM24" s="0"/>
+      <c r="FN24" s="0"/>
+      <c r="FO24" s="0"/>
+      <c r="FP24" s="0"/>
+      <c r="FQ24" s="0"/>
+      <c r="FR24" s="0"/>
+      <c r="FS24" s="0"/>
+      <c r="FT24" s="0"/>
+      <c r="FU24" s="0"/>
+      <c r="FV24" s="0"/>
+      <c r="FW24" s="0"/>
+      <c r="FX24" s="0"/>
+      <c r="FY24" s="0"/>
+      <c r="FZ24" s="0"/>
+      <c r="GA24" s="0"/>
+      <c r="GB24" s="0"/>
+      <c r="GC24" s="0"/>
+      <c r="GD24" s="0"/>
+      <c r="GE24" s="0"/>
+      <c r="GF24" s="0"/>
+      <c r="GG24" s="0"/>
+      <c r="GH24" s="0"/>
+      <c r="GI24" s="0"/>
+      <c r="GJ24" s="0"/>
+      <c r="GK24" s="0"/>
+      <c r="GL24" s="0"/>
+      <c r="GM24" s="0"/>
+      <c r="GN24" s="0"/>
+      <c r="GO24" s="0"/>
+      <c r="GP24" s="0"/>
+      <c r="GQ24" s="0"/>
+      <c r="GR24" s="0"/>
+      <c r="GS24" s="0"/>
+      <c r="GT24" s="0"/>
+      <c r="GU24" s="0"/>
+      <c r="GV24" s="0"/>
+      <c r="GW24" s="0"/>
+      <c r="GX24" s="0"/>
+      <c r="GY24" s="0"/>
+      <c r="GZ24" s="0"/>
+      <c r="HA24" s="0"/>
+      <c r="HB24" s="0"/>
+      <c r="HC24" s="0"/>
+      <c r="HD24" s="0"/>
+      <c r="HE24" s="0"/>
+      <c r="HF24" s="0"/>
+      <c r="HG24" s="0"/>
+      <c r="HH24" s="0"/>
+      <c r="HI24" s="0"/>
+      <c r="HJ24" s="0"/>
+      <c r="HK24" s="0"/>
+      <c r="HL24" s="0"/>
+      <c r="HM24" s="0"/>
+      <c r="HN24" s="0"/>
+      <c r="HO24" s="0"/>
+      <c r="HP24" s="0"/>
+      <c r="HQ24" s="0"/>
+      <c r="HR24" s="0"/>
+      <c r="HS24" s="0"/>
+      <c r="HT24" s="0"/>
+      <c r="HU24" s="0"/>
+      <c r="HV24" s="0"/>
+      <c r="HW24" s="0"/>
+      <c r="HX24" s="0"/>
+      <c r="HY24" s="0"/>
+      <c r="HZ24" s="0"/>
+      <c r="IA24" s="0"/>
+      <c r="IB24" s="0"/>
+      <c r="IC24" s="0"/>
+      <c r="ID24" s="0"/>
+      <c r="IE24" s="0"/>
+      <c r="IF24" s="0"/>
+      <c r="IG24" s="0"/>
+      <c r="IH24" s="0"/>
+      <c r="II24" s="0"/>
+      <c r="IJ24" s="0"/>
+      <c r="IK24" s="0"/>
+      <c r="IL24" s="0"/>
+      <c r="IM24" s="0"/>
+      <c r="IN24" s="0"/>
+      <c r="IO24" s="0"/>
+      <c r="IP24" s="0"/>
+      <c r="IQ24" s="0"/>
+      <c r="IR24" s="0"/>
+      <c r="IS24" s="0"/>
+      <c r="IT24" s="0"/>
+      <c r="IU24" s="0"/>
+      <c r="IV24" s="0"/>
+      <c r="IW24" s="0"/>
+      <c r="IX24" s="0"/>
+      <c r="IY24" s="0"/>
+      <c r="IZ24" s="0"/>
+      <c r="JA24" s="0"/>
+      <c r="JB24" s="0"/>
+      <c r="JC24" s="0"/>
+      <c r="JD24" s="0"/>
+      <c r="JE24" s="0"/>
+      <c r="JF24" s="0"/>
+      <c r="JG24" s="0"/>
+      <c r="JH24" s="0"/>
+      <c r="JI24" s="0"/>
+      <c r="JJ24" s="0"/>
+      <c r="JK24" s="0"/>
+      <c r="JL24" s="0"/>
+      <c r="JM24" s="0"/>
+      <c r="JN24" s="0"/>
+      <c r="JO24" s="0"/>
+      <c r="JP24" s="0"/>
+      <c r="JQ24" s="0"/>
+      <c r="JR24" s="0"/>
+      <c r="JS24" s="0"/>
+      <c r="JT24" s="0"/>
+      <c r="JU24" s="0"/>
+      <c r="JV24" s="0"/>
+      <c r="JW24" s="0"/>
+      <c r="JX24" s="0"/>
+      <c r="JY24" s="0"/>
+      <c r="JZ24" s="0"/>
+      <c r="KA24" s="0"/>
+      <c r="KB24" s="0"/>
+      <c r="KC24" s="0"/>
+      <c r="KD24" s="0"/>
+      <c r="KE24" s="0"/>
+      <c r="KF24" s="0"/>
+      <c r="KG24" s="0"/>
+      <c r="KH24" s="0"/>
+      <c r="KI24" s="0"/>
+      <c r="KJ24" s="0"/>
+      <c r="KK24" s="0"/>
+      <c r="KL24" s="0"/>
+      <c r="KM24" s="0"/>
+      <c r="KN24" s="0"/>
+      <c r="KO24" s="0"/>
+      <c r="KP24" s="0"/>
+      <c r="KQ24" s="0"/>
+      <c r="KR24" s="0"/>
+      <c r="KS24" s="0"/>
+      <c r="KT24" s="0"/>
+      <c r="KU24" s="0"/>
+      <c r="KV24" s="0"/>
+      <c r="KW24" s="0"/>
+      <c r="KX24" s="0"/>
+      <c r="KY24" s="0"/>
+      <c r="KZ24" s="0"/>
+      <c r="LA24" s="0"/>
+      <c r="LB24" s="0"/>
+      <c r="LC24" s="0"/>
+      <c r="LD24" s="0"/>
+      <c r="LE24" s="0"/>
+      <c r="LF24" s="0"/>
+      <c r="LG24" s="0"/>
+      <c r="LH24" s="0"/>
+      <c r="LI24" s="0"/>
+      <c r="LJ24" s="0"/>
+      <c r="LK24" s="0"/>
+      <c r="LL24" s="0"/>
+      <c r="LM24" s="0"/>
+      <c r="LN24" s="0"/>
+      <c r="LO24" s="0"/>
+      <c r="LP24" s="0"/>
+      <c r="LQ24" s="0"/>
+      <c r="LR24" s="0"/>
+      <c r="LS24" s="0"/>
+      <c r="LT24" s="0"/>
+      <c r="LU24" s="0"/>
+      <c r="LV24" s="0"/>
+      <c r="LW24" s="0"/>
+      <c r="LX24" s="0"/>
+      <c r="LY24" s="0"/>
+      <c r="LZ24" s="0"/>
+      <c r="MA24" s="0"/>
+      <c r="MB24" s="0"/>
+      <c r="MC24" s="0"/>
+      <c r="MD24" s="0"/>
+      <c r="ME24" s="0"/>
+      <c r="MF24" s="0"/>
+      <c r="MG24" s="0"/>
+      <c r="MH24" s="0"/>
+      <c r="MI24" s="0"/>
+      <c r="MJ24" s="0"/>
+      <c r="MK24" s="0"/>
+      <c r="ML24" s="0"/>
+      <c r="MM24" s="0"/>
+      <c r="MN24" s="0"/>
+      <c r="MO24" s="0"/>
+      <c r="MP24" s="0"/>
+      <c r="MQ24" s="0"/>
+      <c r="MR24" s="0"/>
+      <c r="MS24" s="0"/>
+      <c r="MT24" s="0"/>
+      <c r="MU24" s="0"/>
+      <c r="MV24" s="0"/>
+      <c r="MW24" s="0"/>
+      <c r="MX24" s="0"/>
+      <c r="MY24" s="0"/>
+      <c r="MZ24" s="0"/>
+      <c r="NA24" s="0"/>
+      <c r="NB24" s="0"/>
+      <c r="NC24" s="0"/>
+      <c r="ND24" s="0"/>
+      <c r="NE24" s="0"/>
+      <c r="NF24" s="0"/>
+      <c r="NG24" s="0"/>
+      <c r="NH24" s="0"/>
+      <c r="NI24" s="0"/>
+      <c r="NJ24" s="0"/>
+      <c r="NK24" s="0"/>
+      <c r="NL24" s="0"/>
+      <c r="NM24" s="0"/>
+      <c r="NN24" s="0"/>
+      <c r="NO24" s="0"/>
+      <c r="NP24" s="0"/>
+      <c r="NQ24" s="0"/>
+      <c r="NR24" s="0"/>
+      <c r="NS24" s="0"/>
+      <c r="NT24" s="0"/>
+      <c r="NU24" s="0"/>
+      <c r="NV24" s="0"/>
+      <c r="NW24" s="0"/>
+      <c r="NX24" s="0"/>
+      <c r="NY24" s="0"/>
+      <c r="NZ24" s="0"/>
+      <c r="OA24" s="0"/>
+      <c r="OB24" s="0"/>
+      <c r="OC24" s="0"/>
+      <c r="OD24" s="0"/>
+      <c r="OE24" s="0"/>
+      <c r="OF24" s="0"/>
+      <c r="OG24" s="0"/>
+      <c r="OH24" s="0"/>
+      <c r="OI24" s="0"/>
+      <c r="OJ24" s="0"/>
+      <c r="OK24" s="0"/>
+      <c r="OL24" s="0"/>
+      <c r="OM24" s="0"/>
+      <c r="ON24" s="0"/>
+      <c r="OO24" s="0"/>
+      <c r="OP24" s="0"/>
+      <c r="OQ24" s="0"/>
+      <c r="OR24" s="0"/>
+      <c r="OS24" s="0"/>
+      <c r="OT24" s="0"/>
+      <c r="OU24" s="0"/>
+      <c r="OV24" s="0"/>
+      <c r="OW24" s="0"/>
+      <c r="OX24" s="0"/>
+      <c r="OY24" s="0"/>
+      <c r="OZ24" s="0"/>
+      <c r="PA24" s="0"/>
+      <c r="PB24" s="0"/>
+      <c r="PC24" s="0"/>
+      <c r="PD24" s="0"/>
+      <c r="PE24" s="0"/>
+      <c r="PF24" s="0"/>
+      <c r="PG24" s="0"/>
+      <c r="PH24" s="0"/>
+      <c r="PI24" s="0"/>
+      <c r="PJ24" s="0"/>
+      <c r="PK24" s="0"/>
+      <c r="PL24" s="0"/>
+      <c r="PM24" s="0"/>
+      <c r="PN24" s="0"/>
+      <c r="PO24" s="0"/>
+      <c r="PP24" s="0"/>
+      <c r="PQ24" s="0"/>
+      <c r="PR24" s="0"/>
+      <c r="PS24" s="0"/>
+      <c r="PT24" s="0"/>
+      <c r="PU24" s="0"/>
+      <c r="PV24" s="0"/>
+      <c r="PW24" s="0"/>
+      <c r="PX24" s="0"/>
+      <c r="PY24" s="0"/>
+      <c r="PZ24" s="0"/>
+      <c r="QA24" s="0"/>
+      <c r="QB24" s="0"/>
+      <c r="QC24" s="0"/>
+      <c r="QD24" s="0"/>
+      <c r="QE24" s="0"/>
+      <c r="QF24" s="0"/>
+      <c r="QG24" s="0"/>
+      <c r="QH24" s="0"/>
+      <c r="QI24" s="0"/>
+      <c r="QJ24" s="0"/>
+      <c r="QK24" s="0"/>
+      <c r="QL24" s="0"/>
+      <c r="QM24" s="0"/>
+      <c r="QN24" s="0"/>
+      <c r="QO24" s="0"/>
+      <c r="QP24" s="0"/>
+      <c r="QQ24" s="0"/>
+      <c r="QR24" s="0"/>
+      <c r="QS24" s="0"/>
+      <c r="QT24" s="0"/>
+      <c r="QU24" s="0"/>
+      <c r="QV24" s="0"/>
+      <c r="QW24" s="0"/>
+      <c r="QX24" s="0"/>
+      <c r="QY24" s="0"/>
+      <c r="QZ24" s="0"/>
+      <c r="RA24" s="0"/>
+      <c r="RB24" s="0"/>
+      <c r="RC24" s="0"/>
+      <c r="RD24" s="0"/>
+      <c r="RE24" s="0"/>
+      <c r="RF24" s="0"/>
+      <c r="RG24" s="0"/>
+      <c r="RH24" s="0"/>
+      <c r="RI24" s="0"/>
+      <c r="RJ24" s="0"/>
+      <c r="RK24" s="0"/>
+      <c r="RL24" s="0"/>
+      <c r="RM24" s="0"/>
+      <c r="RN24" s="0"/>
+      <c r="RO24" s="0"/>
+      <c r="RP24" s="0"/>
+      <c r="RQ24" s="0"/>
+      <c r="RR24" s="0"/>
+      <c r="RS24" s="0"/>
+      <c r="RT24" s="0"/>
+      <c r="RU24" s="0"/>
+      <c r="RV24" s="0"/>
+      <c r="RW24" s="0"/>
+      <c r="RX24" s="0"/>
+      <c r="RY24" s="0"/>
+      <c r="RZ24" s="0"/>
+      <c r="SA24" s="0"/>
+      <c r="SB24" s="0"/>
+      <c r="SC24" s="0"/>
+      <c r="SD24" s="0"/>
+      <c r="SE24" s="0"/>
+      <c r="SF24" s="0"/>
+      <c r="SG24" s="0"/>
+      <c r="SH24" s="0"/>
+      <c r="SI24" s="0"/>
+      <c r="SJ24" s="0"/>
+      <c r="SK24" s="0"/>
+      <c r="SL24" s="0"/>
+      <c r="SM24" s="0"/>
+      <c r="SN24" s="0"/>
+      <c r="SO24" s="0"/>
+      <c r="SP24" s="0"/>
+      <c r="SQ24" s="0"/>
+      <c r="SR24" s="0"/>
+      <c r="SS24" s="0"/>
+      <c r="ST24" s="0"/>
+      <c r="SU24" s="0"/>
+      <c r="SV24" s="0"/>
+      <c r="SW24" s="0"/>
+      <c r="SX24" s="0"/>
+      <c r="SY24" s="0"/>
+      <c r="SZ24" s="0"/>
+      <c r="TA24" s="0"/>
+      <c r="TB24" s="0"/>
+      <c r="TC24" s="0"/>
+      <c r="TD24" s="0"/>
+      <c r="TE24" s="0"/>
+      <c r="TF24" s="0"/>
+      <c r="TG24" s="0"/>
+      <c r="TH24" s="0"/>
+      <c r="TI24" s="0"/>
+      <c r="TJ24" s="0"/>
+      <c r="TK24" s="0"/>
+      <c r="TL24" s="0"/>
+      <c r="TM24" s="0"/>
+      <c r="TN24" s="0"/>
+      <c r="TO24" s="0"/>
+      <c r="TP24" s="0"/>
+      <c r="TQ24" s="0"/>
+      <c r="TR24" s="0"/>
+      <c r="TS24" s="0"/>
+      <c r="TT24" s="0"/>
+      <c r="TU24" s="0"/>
+      <c r="TV24" s="0"/>
+      <c r="TW24" s="0"/>
+      <c r="TX24" s="0"/>
+      <c r="TY24" s="0"/>
+      <c r="TZ24" s="0"/>
+      <c r="UA24" s="0"/>
+      <c r="UB24" s="0"/>
+      <c r="UC24" s="0"/>
+      <c r="UD24" s="0"/>
+      <c r="UE24" s="0"/>
+      <c r="UF24" s="0"/>
+      <c r="UG24" s="0"/>
+      <c r="UH24" s="0"/>
+      <c r="UI24" s="0"/>
+      <c r="UJ24" s="0"/>
+      <c r="UK24" s="0"/>
+      <c r="UL24" s="0"/>
+      <c r="UM24" s="0"/>
+      <c r="UN24" s="0"/>
+      <c r="UO24" s="0"/>
+      <c r="UP24" s="0"/>
+      <c r="UQ24" s="0"/>
+      <c r="UR24" s="0"/>
+      <c r="US24" s="0"/>
+      <c r="UT24" s="0"/>
+      <c r="UU24" s="0"/>
+      <c r="UV24" s="0"/>
+      <c r="UW24" s="0"/>
+      <c r="UX24" s="0"/>
+      <c r="UY24" s="0"/>
+      <c r="UZ24" s="0"/>
+      <c r="VA24" s="0"/>
+      <c r="VB24" s="0"/>
+      <c r="VC24" s="0"/>
+      <c r="VD24" s="0"/>
+      <c r="VE24" s="0"/>
+      <c r="VF24" s="0"/>
+      <c r="VG24" s="0"/>
+      <c r="VH24" s="0"/>
+      <c r="VI24" s="0"/>
+      <c r="VJ24" s="0"/>
+      <c r="VK24" s="0"/>
+      <c r="VL24" s="0"/>
+      <c r="VM24" s="0"/>
+      <c r="VN24" s="0"/>
+      <c r="VO24" s="0"/>
+      <c r="VP24" s="0"/>
+      <c r="VQ24" s="0"/>
+      <c r="VR24" s="0"/>
+      <c r="VS24" s="0"/>
+      <c r="VT24" s="0"/>
+      <c r="VU24" s="0"/>
+      <c r="VV24" s="0"/>
+      <c r="VW24" s="0"/>
+      <c r="VX24" s="0"/>
+      <c r="VY24" s="0"/>
+      <c r="VZ24" s="0"/>
+      <c r="WA24" s="0"/>
+      <c r="WB24" s="0"/>
+      <c r="WC24" s="0"/>
+      <c r="WD24" s="0"/>
+      <c r="WE24" s="0"/>
+      <c r="WF24" s="0"/>
+      <c r="WG24" s="0"/>
+      <c r="WH24" s="0"/>
+      <c r="WI24" s="0"/>
+      <c r="WJ24" s="0"/>
+      <c r="WK24" s="0"/>
+      <c r="WL24" s="0"/>
+      <c r="WM24" s="0"/>
+      <c r="WN24" s="0"/>
+      <c r="WO24" s="0"/>
+      <c r="WP24" s="0"/>
+      <c r="WQ24" s="0"/>
+      <c r="WR24" s="0"/>
+      <c r="WS24" s="0"/>
+      <c r="WT24" s="0"/>
+      <c r="WU24" s="0"/>
+      <c r="WV24" s="0"/>
+      <c r="WW24" s="0"/>
+      <c r="WX24" s="0"/>
+      <c r="WY24" s="0"/>
+      <c r="WZ24" s="0"/>
+      <c r="XA24" s="0"/>
+      <c r="XB24" s="0"/>
+      <c r="XC24" s="0"/>
+      <c r="XD24" s="0"/>
+      <c r="XE24" s="0"/>
+      <c r="XF24" s="0"/>
+      <c r="XG24" s="0"/>
+      <c r="XH24" s="0"/>
+      <c r="XI24" s="0"/>
+      <c r="XJ24" s="0"/>
+      <c r="XK24" s="0"/>
+      <c r="XL24" s="0"/>
+      <c r="XM24" s="0"/>
+      <c r="XN24" s="0"/>
+      <c r="XO24" s="0"/>
+      <c r="XP24" s="0"/>
+      <c r="XQ24" s="0"/>
+      <c r="XR24" s="0"/>
+      <c r="XS24" s="0"/>
+      <c r="XT24" s="0"/>
+      <c r="XU24" s="0"/>
+      <c r="XV24" s="0"/>
+      <c r="XW24" s="0"/>
+      <c r="XX24" s="0"/>
+      <c r="XY24" s="0"/>
+      <c r="XZ24" s="0"/>
+      <c r="YA24" s="0"/>
+      <c r="YB24" s="0"/>
+      <c r="YC24" s="0"/>
+      <c r="YD24" s="0"/>
+      <c r="YE24" s="0"/>
+      <c r="YF24" s="0"/>
+      <c r="YG24" s="0"/>
+      <c r="YH24" s="0"/>
+      <c r="YI24" s="0"/>
+      <c r="YJ24" s="0"/>
+      <c r="YK24" s="0"/>
+      <c r="YL24" s="0"/>
+      <c r="YM24" s="0"/>
+      <c r="YN24" s="0"/>
+      <c r="YO24" s="0"/>
+      <c r="YP24" s="0"/>
+      <c r="YQ24" s="0"/>
+      <c r="YR24" s="0"/>
+      <c r="YS24" s="0"/>
+      <c r="YT24" s="0"/>
+      <c r="YU24" s="0"/>
+      <c r="YV24" s="0"/>
+      <c r="YW24" s="0"/>
+      <c r="YX24" s="0"/>
+      <c r="YY24" s="0"/>
+      <c r="YZ24" s="0"/>
+      <c r="ZA24" s="0"/>
+      <c r="ZB24" s="0"/>
+      <c r="ZC24" s="0"/>
+      <c r="ZD24" s="0"/>
+      <c r="ZE24" s="0"/>
+      <c r="ZF24" s="0"/>
+      <c r="ZG24" s="0"/>
+      <c r="ZH24" s="0"/>
+      <c r="ZI24" s="0"/>
+      <c r="ZJ24" s="0"/>
+      <c r="ZK24" s="0"/>
+      <c r="ZL24" s="0"/>
+      <c r="ZM24" s="0"/>
+      <c r="ZN24" s="0"/>
+      <c r="ZO24" s="0"/>
+      <c r="ZP24" s="0"/>
+      <c r="ZQ24" s="0"/>
+      <c r="ZR24" s="0"/>
+      <c r="ZS24" s="0"/>
+      <c r="ZT24" s="0"/>
+      <c r="ZU24" s="0"/>
+      <c r="ZV24" s="0"/>
+      <c r="ZW24" s="0"/>
+      <c r="ZX24" s="0"/>
+      <c r="ZY24" s="0"/>
+      <c r="ZZ24" s="0"/>
+      <c r="AAA24" s="0"/>
+      <c r="AAB24" s="0"/>
+      <c r="AAC24" s="0"/>
+      <c r="AAD24" s="0"/>
+      <c r="AAE24" s="0"/>
+      <c r="AAF24" s="0"/>
+      <c r="AAG24" s="0"/>
+      <c r="AAH24" s="0"/>
+      <c r="AAI24" s="0"/>
+      <c r="AAJ24" s="0"/>
+      <c r="AAK24" s="0"/>
+      <c r="AAL24" s="0"/>
+      <c r="AAM24" s="0"/>
+      <c r="AAN24" s="0"/>
+      <c r="AAO24" s="0"/>
+      <c r="AAP24" s="0"/>
+      <c r="AAQ24" s="0"/>
+      <c r="AAR24" s="0"/>
+      <c r="AAS24" s="0"/>
+      <c r="AAT24" s="0"/>
+      <c r="AAU24" s="0"/>
+      <c r="AAV24" s="0"/>
+      <c r="AAW24" s="0"/>
+      <c r="AAX24" s="0"/>
+      <c r="AAY24" s="0"/>
+      <c r="AAZ24" s="0"/>
+      <c r="ABA24" s="0"/>
+      <c r="ABB24" s="0"/>
+      <c r="ABC24" s="0"/>
+      <c r="ABD24" s="0"/>
+      <c r="ABE24" s="0"/>
+      <c r="ABF24" s="0"/>
+      <c r="ABG24" s="0"/>
+      <c r="ABH24" s="0"/>
+      <c r="ABI24" s="0"/>
+      <c r="ABJ24" s="0"/>
+      <c r="ABK24" s="0"/>
+      <c r="ABL24" s="0"/>
+      <c r="ABM24" s="0"/>
+      <c r="ABN24" s="0"/>
+      <c r="ABO24" s="0"/>
+      <c r="ABP24" s="0"/>
+      <c r="ABQ24" s="0"/>
+      <c r="ABR24" s="0"/>
+      <c r="ABS24" s="0"/>
+      <c r="ABT24" s="0"/>
+      <c r="ABU24" s="0"/>
+      <c r="ABV24" s="0"/>
+      <c r="ABW24" s="0"/>
+      <c r="ABX24" s="0"/>
+      <c r="ABY24" s="0"/>
+      <c r="ABZ24" s="0"/>
+      <c r="ACA24" s="0"/>
+      <c r="ACB24" s="0"/>
+      <c r="ACC24" s="0"/>
+      <c r="ACD24" s="0"/>
+      <c r="ACE24" s="0"/>
+      <c r="ACF24" s="0"/>
+      <c r="ACG24" s="0"/>
+      <c r="ACH24" s="0"/>
+      <c r="ACI24" s="0"/>
+      <c r="ACJ24" s="0"/>
+      <c r="ACK24" s="0"/>
+      <c r="ACL24" s="0"/>
+      <c r="ACM24" s="0"/>
+      <c r="ACN24" s="0"/>
+      <c r="ACO24" s="0"/>
+      <c r="ACP24" s="0"/>
+      <c r="ACQ24" s="0"/>
+      <c r="ACR24" s="0"/>
+      <c r="ACS24" s="0"/>
+      <c r="ACT24" s="0"/>
+      <c r="ACU24" s="0"/>
+      <c r="ACV24" s="0"/>
+      <c r="ACW24" s="0"/>
+      <c r="ACX24" s="0"/>
+      <c r="ACY24" s="0"/>
+      <c r="ACZ24" s="0"/>
+      <c r="ADA24" s="0"/>
+      <c r="ADB24" s="0"/>
+      <c r="ADC24" s="0"/>
+      <c r="ADD24" s="0"/>
+      <c r="ADE24" s="0"/>
+      <c r="ADF24" s="0"/>
+      <c r="ADG24" s="0"/>
+      <c r="ADH24" s="0"/>
+      <c r="ADI24" s="0"/>
+      <c r="ADJ24" s="0"/>
+      <c r="ADK24" s="0"/>
+      <c r="ADL24" s="0"/>
+      <c r="ADM24" s="0"/>
+      <c r="ADN24" s="0"/>
+      <c r="ADO24" s="0"/>
+      <c r="ADP24" s="0"/>
+      <c r="ADQ24" s="0"/>
+      <c r="ADR24" s="0"/>
+      <c r="ADS24" s="0"/>
+      <c r="ADT24" s="0"/>
+      <c r="ADU24" s="0"/>
+      <c r="ADV24" s="0"/>
+      <c r="ADW24" s="0"/>
+      <c r="ADX24" s="0"/>
+      <c r="ADY24" s="0"/>
+      <c r="ADZ24" s="0"/>
+      <c r="AEA24" s="0"/>
+      <c r="AEB24" s="0"/>
+      <c r="AEC24" s="0"/>
+      <c r="AED24" s="0"/>
+      <c r="AEE24" s="0"/>
+      <c r="AEF24" s="0"/>
+      <c r="AEG24" s="0"/>
+      <c r="AEH24" s="0"/>
+      <c r="AEI24" s="0"/>
+      <c r="AEJ24" s="0"/>
+      <c r="AEK24" s="0"/>
+      <c r="AEL24" s="0"/>
+      <c r="AEM24" s="0"/>
+      <c r="AEN24" s="0"/>
+      <c r="AEO24" s="0"/>
+      <c r="AEP24" s="0"/>
+      <c r="AEQ24" s="0"/>
+      <c r="AER24" s="0"/>
+      <c r="AES24" s="0"/>
+      <c r="AET24" s="0"/>
+      <c r="AEU24" s="0"/>
+      <c r="AEV24" s="0"/>
+      <c r="AEW24" s="0"/>
+      <c r="AEX24" s="0"/>
+      <c r="AEY24" s="0"/>
+      <c r="AEZ24" s="0"/>
+      <c r="AFA24" s="0"/>
+      <c r="AFB24" s="0"/>
+      <c r="AFC24" s="0"/>
+      <c r="AFD24" s="0"/>
+      <c r="AFE24" s="0"/>
+      <c r="AFF24" s="0"/>
+      <c r="AFG24" s="0"/>
+      <c r="AFH24" s="0"/>
+      <c r="AFI24" s="0"/>
+      <c r="AFJ24" s="0"/>
+      <c r="AFK24" s="0"/>
+      <c r="AFL24" s="0"/>
+      <c r="AFM24" s="0"/>
+      <c r="AFN24" s="0"/>
+      <c r="AFO24" s="0"/>
+      <c r="AFP24" s="0"/>
+      <c r="AFQ24" s="0"/>
+      <c r="AFR24" s="0"/>
+      <c r="AFS24" s="0"/>
+      <c r="AFT24" s="0"/>
+      <c r="AFU24" s="0"/>
+      <c r="AFV24" s="0"/>
+      <c r="AFW24" s="0"/>
+      <c r="AFX24" s="0"/>
+      <c r="AFY24" s="0"/>
+      <c r="AFZ24" s="0"/>
+      <c r="AGA24" s="0"/>
+      <c r="AGB24" s="0"/>
+      <c r="AGC24" s="0"/>
+      <c r="AGD24" s="0"/>
+      <c r="AGE24" s="0"/>
+      <c r="AGF24" s="0"/>
+      <c r="AGG24" s="0"/>
+      <c r="AGH24" s="0"/>
+      <c r="AGI24" s="0"/>
+      <c r="AGJ24" s="0"/>
+      <c r="AGK24" s="0"/>
+      <c r="AGL24" s="0"/>
+      <c r="AGM24" s="0"/>
+      <c r="AGN24" s="0"/>
+      <c r="AGO24" s="0"/>
+      <c r="AGP24" s="0"/>
+      <c r="AGQ24" s="0"/>
+      <c r="AGR24" s="0"/>
+      <c r="AGS24" s="0"/>
+      <c r="AGT24" s="0"/>
+      <c r="AGU24" s="0"/>
+      <c r="AGV24" s="0"/>
+      <c r="AGW24" s="0"/>
+      <c r="AGX24" s="0"/>
+      <c r="AGY24" s="0"/>
+      <c r="AGZ24" s="0"/>
+      <c r="AHA24" s="0"/>
+      <c r="AHB24" s="0"/>
+      <c r="AHC24" s="0"/>
+      <c r="AHD24" s="0"/>
+      <c r="AHE24" s="0"/>
+      <c r="AHF24" s="0"/>
+      <c r="AHG24" s="0"/>
+      <c r="AHH24" s="0"/>
+      <c r="AHI24" s="0"/>
+      <c r="AHJ24" s="0"/>
+      <c r="AHK24" s="0"/>
+      <c r="AHL24" s="0"/>
+      <c r="AHM24" s="0"/>
+      <c r="AHN24" s="0"/>
+      <c r="AHO24" s="0"/>
+      <c r="AHP24" s="0"/>
+      <c r="AHQ24" s="0"/>
+      <c r="AHR24" s="0"/>
+      <c r="AHS24" s="0"/>
+      <c r="AHT24" s="0"/>
+      <c r="AHU24" s="0"/>
+      <c r="AHV24" s="0"/>
+      <c r="AHW24" s="0"/>
+      <c r="AHX24" s="0"/>
+      <c r="AHY24" s="0"/>
+      <c r="AHZ24" s="0"/>
+      <c r="AIA24" s="0"/>
+      <c r="AIB24" s="0"/>
+      <c r="AIC24" s="0"/>
+      <c r="AID24" s="0"/>
+      <c r="AIE24" s="0"/>
+      <c r="AIF24" s="0"/>
+      <c r="AIG24" s="0"/>
+      <c r="AIH24" s="0"/>
+      <c r="AII24" s="0"/>
+      <c r="AIJ24" s="0"/>
+      <c r="AIK24" s="0"/>
+      <c r="AIL24" s="0"/>
+      <c r="AIM24" s="0"/>
+      <c r="AIN24" s="0"/>
+      <c r="AIO24" s="0"/>
+      <c r="AIP24" s="0"/>
+      <c r="AIQ24" s="0"/>
+      <c r="AIR24" s="0"/>
+      <c r="AIS24" s="0"/>
+      <c r="AIT24" s="0"/>
+      <c r="AIU24" s="0"/>
+      <c r="AIV24" s="0"/>
+      <c r="AIW24" s="0"/>
+      <c r="AIX24" s="0"/>
+      <c r="AIY24" s="0"/>
+      <c r="AIZ24" s="0"/>
+      <c r="AJA24" s="0"/>
+      <c r="AJB24" s="0"/>
+      <c r="AJC24" s="0"/>
+      <c r="AJD24" s="0"/>
+      <c r="AJE24" s="0"/>
+      <c r="AJF24" s="0"/>
+      <c r="AJG24" s="0"/>
+      <c r="AJH24" s="0"/>
+      <c r="AJI24" s="0"/>
+      <c r="AJJ24" s="0"/>
+      <c r="AJK24" s="0"/>
+      <c r="AJL24" s="0"/>
+      <c r="AJM24" s="0"/>
+      <c r="AJN24" s="0"/>
+      <c r="AJO24" s="0"/>
+      <c r="AJP24" s="0"/>
+      <c r="AJQ24" s="0"/>
+      <c r="AJR24" s="0"/>
+      <c r="AJS24" s="0"/>
+      <c r="AJT24" s="0"/>
+      <c r="AJU24" s="0"/>
+      <c r="AJV24" s="0"/>
+      <c r="AJW24" s="0"/>
+      <c r="AJX24" s="0"/>
+      <c r="AJY24" s="0"/>
+      <c r="AJZ24" s="0"/>
+      <c r="AKA24" s="0"/>
+      <c r="AKB24" s="0"/>
+      <c r="AKC24" s="0"/>
+      <c r="AKD24" s="0"/>
+      <c r="AKE24" s="0"/>
+      <c r="AKF24" s="0"/>
+      <c r="AKG24" s="0"/>
+      <c r="AKH24" s="0"/>
+      <c r="AKI24" s="0"/>
+      <c r="AKJ24" s="0"/>
+      <c r="AKK24" s="0"/>
+      <c r="AKL24" s="0"/>
+      <c r="AKM24" s="0"/>
+      <c r="AKN24" s="0"/>
+      <c r="AKO24" s="0"/>
+      <c r="AKP24" s="0"/>
+      <c r="AKQ24" s="0"/>
+      <c r="AKR24" s="0"/>
+      <c r="AKS24" s="0"/>
+      <c r="AKT24" s="0"/>
+      <c r="AKU24" s="0"/>
+      <c r="AKV24" s="0"/>
+      <c r="AKW24" s="0"/>
+      <c r="AKX24" s="0"/>
+      <c r="AKY24" s="0"/>
+      <c r="AKZ24" s="0"/>
+      <c r="ALA24" s="0"/>
+      <c r="ALB24" s="0"/>
+      <c r="ALC24" s="0"/>
+      <c r="ALD24" s="0"/>
+      <c r="ALE24" s="0"/>
+      <c r="ALF24" s="0"/>
+      <c r="ALG24" s="0"/>
+      <c r="ALH24" s="0"/>
+      <c r="ALI24" s="0"/>
+      <c r="ALJ24" s="0"/>
+      <c r="ALK24" s="0"/>
+      <c r="ALL24" s="0"/>
+      <c r="ALM24" s="0"/>
+      <c r="ALN24" s="0"/>
+      <c r="ALO24" s="0"/>
+      <c r="ALP24" s="0"/>
+      <c r="ALQ24" s="0"/>
+      <c r="ALR24" s="0"/>
+      <c r="ALS24" s="0"/>
+      <c r="ALT24" s="0"/>
+      <c r="ALU24" s="0"/>
+      <c r="ALV24" s="0"/>
+      <c r="ALW24" s="0"/>
+      <c r="ALX24" s="0"/>
+      <c r="ALY24" s="0"/>
+      <c r="ALZ24" s="0"/>
+      <c r="AMA24" s="0"/>
+      <c r="AMB24" s="0"/>
+      <c r="AMC24" s="0"/>
+      <c r="AMD24" s="0"/>
+      <c r="AME24" s="0"/>
+      <c r="AMF24" s="0"/>
+      <c r="AMG24" s="0"/>
+      <c r="AMH24" s="0"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B25" s="79" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C25" s="79" t="s">
         <v>1710</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="D25" s="79" t="s">
         <v>1711</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="E25" s="78" t="s">
         <v>1712</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>1713</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -42474,88 +44521,88 @@
     </row>
     <row r="26" customFormat="false" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C26" s="79" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D26" s="79" t="s">
         <v>1714</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>1715</v>
       </c>
       <c r="E26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C27" s="79" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D27" s="79" t="s">
         <v>1716</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>1717</v>
       </c>
       <c r="E27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="173.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B28" s="79" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C28" s="79" t="s">
         <v>1718</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="D28" s="79" t="s">
         <v>1719</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>1720</v>
       </c>
       <c r="E28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C29" s="79" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D29" s="79" t="s">
         <v>1721</v>
-      </c>
-      <c r="D29" s="79" t="s">
-        <v>1722</v>
       </c>
       <c r="E29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="79" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B30" s="79" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C30" s="79" t="s">
         <v>1623</v>
       </c>
-      <c r="C30" s="79" t="s">
-        <v>1624</v>
-      </c>
       <c r="D30" s="79" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E30" s="78"/>
     </row>
     <row r="31" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="81" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B31" s="81" t="s">
         <v>701</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="81" t="s">
@@ -42564,67 +44611,67 @@
     </row>
     <row r="32" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="81" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B32" s="81" t="s">
         <v>1725</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="C32" s="81" t="s">
         <v>1726</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>1727</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="81" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="81" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B33" s="81"/>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
       <c r="E33" s="81" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="81" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
       <c r="E34" s="81" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="81" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B35" s="81" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C35" s="81" t="s">
         <v>1733</v>
-      </c>
-      <c r="C35" s="81" t="s">
-        <v>1734</v>
       </c>
       <c r="D35" s="81"/>
       <c r="E35" s="81" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="81" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B36" s="81"/>
       <c r="C36" s="81"/>
       <c r="D36" s="81"/>
       <c r="E36" s="81" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
   </sheetData>
@@ -42660,16 +44707,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1738</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1740</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42677,13 +44724,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="83" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1743</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42691,27 +44738,27 @@
         <v>52</v>
       </c>
       <c r="B3" s="83" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="82" t="n">
+        <v>50</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="84" t="n">
-        <v>50</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="C4" s="1" t="s">
         <v>1747</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1748</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42719,13 +44766,13 @@
         <v>31</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1745</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42733,13 +44780,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1745</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42747,13 +44794,13 @@
         <v>24</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1745</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42761,13 +44808,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="83" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>1754</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42775,13 +44822,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="83" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1756</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1757</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42789,13 +44836,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="83" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>1759</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42803,13 +44850,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="83" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>1762</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42817,13 +44864,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="83" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>1765</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42831,13 +44878,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="83" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>1767</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42845,13 +44892,13 @@
         <v>38</v>
       </c>
       <c r="B14" s="83" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>1770</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42859,13 +44906,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="83" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>1772</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42873,13 +44920,13 @@
         <v>43</v>
       </c>
       <c r="B16" s="83" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1775</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42887,13 +44934,13 @@
         <v>41</v>
       </c>
       <c r="B17" s="83" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>1778</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42901,13 +44948,13 @@
         <v>44</v>
       </c>
       <c r="B18" s="83" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>1781</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42915,13 +44962,13 @@
         <v>45</v>
       </c>
       <c r="B19" s="83" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>1783</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42929,13 +44976,13 @@
         <v>46</v>
       </c>
       <c r="B20" s="83" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>1785</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42943,13 +44990,13 @@
         <v>47</v>
       </c>
       <c r="B21" s="83" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>1788</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42957,13 +45004,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="83" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>1791</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42971,13 +45018,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42985,13 +45032,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="83" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>1794</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42999,13 +45046,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="83" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>1796</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43013,13 +45060,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43027,49 +45074,49 @@
         <v>35</v>
       </c>
       <c r="B27" s="83" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="82" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>1799</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="84" t="n">
-        <v>36</v>
-      </c>
-      <c r="B28" s="22" t="s">
+      <c r="C28" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="82" t="n">
+        <v>40</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>1800</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="84" t="n">
-        <v>40</v>
-      </c>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="82" t="n">
+        <v>42</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>1803</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="84" t="n">
-        <v>42</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>1804</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>225</v>
@@ -43079,31 +45126,31 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="84" t="n">
+      <c r="A31" s="82" t="n">
         <v>49</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="84" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="82" t="n">
+        <v>51</v>
+      </c>
+      <c r="B32" s="84" t="s">
         <v>1805</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="84" t="n">
-        <v>51</v>
-      </c>
-      <c r="B32" s="85" t="s">
+      <c r="C32" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>1807</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43111,7 +45158,7 @@
         <v>48</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>225</v>
@@ -43121,87 +45168,87 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="84" t="n">
+      <c r="A34" s="82" t="n">
         <v>53</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="85" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="86" t="n">
+        <v>54</v>
+      </c>
+      <c r="B35" s="85" t="s">
         <v>1810</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="87" t="n">
-        <v>54</v>
-      </c>
-      <c r="B35" s="86" t="s">
+      <c r="C35" s="1" t="s">
         <v>1811</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="D35" s="1" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="86" t="n">
+        <v>55</v>
+      </c>
+      <c r="B36" s="85" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="87" t="n">
-        <v>55</v>
-      </c>
-      <c r="B36" s="86" t="s">
+      <c r="C36" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="86" t="n">
+        <v>56</v>
+      </c>
+      <c r="B37" s="85" t="s">
         <v>1814</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="87" t="n">
-        <v>56</v>
-      </c>
-      <c r="B37" s="86" t="s">
+      <c r="C37" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="86" t="n">
+        <v>57</v>
+      </c>
+      <c r="B38" s="85" t="s">
         <v>1815</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="87" t="n">
-        <v>57</v>
-      </c>
-      <c r="B38" s="86" t="s">
+      <c r="C38" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="86" t="n">
+        <v>58</v>
+      </c>
+      <c r="B39" s="85" t="s">
         <v>1817</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="87" t="n">
-        <v>58</v>
-      </c>
-      <c r="B39" s="86" t="s">
+      <c r="C39" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>1819</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1820</v>
       </c>
     </row>
   </sheetData>

--- a/lib/ONIX3_implementation_and_mapping_151106.xlsx
+++ b/lib/ONIX3_implementation_and_mapping_151106.xlsx
@@ -18,13 +18,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Implementation!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Implementation!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Implementation!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">Implementation!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="1822">
   <si>
     <t>ONIX 3 RefName</t>
   </si>
@@ -3228,10 +3229,16 @@
     <t>b211 und b333 (xxx)</t>
   </si>
   <si>
+    <t>601:EpubTypeNote</t>
+  </si>
+  <si>
     <t>x416 [0…1] (newInONIX3)</t>
   </si>
   <si>
     <t>PrimaryContentType</t>
+  </si>
+  <si>
+    <t>610: EpubTypeDescription</t>
   </si>
   <si>
     <t>b385 [0…n]</t>
@@ -6501,9 +6508,9 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Neutral" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Bad" xfId="22" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -6573,15 +6580,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>318960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>613080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6590,8 +6597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="291960" y="3420360"/>
-          <a:ext cx="1716120" cy="2599560"/>
+          <a:off x="318960" y="3411360"/>
+          <a:ext cx="1715760" cy="2599200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6717,15 +6724,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1008000</xdr:colOff>
+      <xdr:colOff>1035000</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1297440</xdr:colOff>
+      <xdr:colOff>1324080</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6734,8 +6741,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5273280" y="25794360"/>
-          <a:ext cx="3132720" cy="981360"/>
+          <a:off x="5300280" y="25785360"/>
+          <a:ext cx="3132360" cy="981000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
           <a:avLst/>
@@ -6784,15 +6791,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>544320</xdr:colOff>
+      <xdr:colOff>571320</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>267120</xdr:rowOff>
+      <xdr:rowOff>354960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>838800</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:colOff>865440</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6801,8 +6808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="544320" y="13945320"/>
-          <a:ext cx="1716120" cy="5416920"/>
+          <a:off x="571320" y="13936320"/>
+          <a:ext cx="1715760" cy="5416560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13290,8 +13297,8 @@
   </sheetPr>
   <dimension ref="A1:J258"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H100" activeCellId="0" sqref="H100"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -13746,8 +13753,10 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>600</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="18" t="s">
@@ -13764,55 +13773,61 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
+    <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>1039</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="19" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
+    <row r="28" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>1042</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="19" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
+    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>700</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="14" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>106</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -13821,10 +13836,10 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="19" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -13832,16 +13847,16 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="31.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="19" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -13854,10 +13869,10 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="19" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -13870,10 +13885,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="19" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
@@ -13887,10 +13902,10 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="19" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
@@ -13903,10 +13918,10 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="19" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -13917,10 +13932,10 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="19" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -13934,10 +13949,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="19" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -13950,10 +13965,10 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="19" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -13967,10 +13982,10 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="19" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
@@ -13983,10 +13998,10 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="19" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
@@ -13999,10 +14014,10 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="19" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
@@ -14013,16 +14028,16 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="14" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>114</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -14034,7 +14049,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="23" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>119</v>
@@ -14050,16 +14065,16 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="18" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>124</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -14071,16 +14086,16 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="23" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>130</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -14130,7 +14145,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="14" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>144</v>
@@ -14147,7 +14162,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="23" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>149</v>
@@ -14163,7 +14178,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="26" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G50" s="19" t="s">
         <v>154</v>
@@ -14179,16 +14194,16 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="26" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="G51" s="19" t="s">
         <v>159</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -14198,10 +14213,10 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="14" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="21"/>
@@ -14215,7 +14230,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="23" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>172</v>
@@ -14231,7 +14246,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="18" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>177</v>
@@ -14248,7 +14263,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="23" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H55" s="24" t="s">
         <v>182</v>
@@ -14264,7 +14279,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>187</v>
@@ -14280,16 +14295,16 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="18" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="H57" s="29" t="s">
         <v>192</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="J57" s="27" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14299,16 +14314,16 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="14" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>199</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="J58" s="1"/>
     </row>
@@ -14317,10 +14332,10 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="19" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
@@ -14333,16 +14348,16 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>167</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H60" s="1"/>
     </row>
@@ -14352,16 +14367,16 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="23" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>172</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14370,7 +14385,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="18" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F62" s="19" t="s">
         <v>177</v>
@@ -14385,7 +14400,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="23" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G63" s="24" t="s">
         <v>187</v>
@@ -14401,13 +14416,13 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="26" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>192</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="I64" s="28" t="s">
         <v>192</v>
@@ -14421,13 +14436,13 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="18" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>220</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="I65" s="27" t="s">
         <v>220</v>
@@ -14440,7 +14455,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="14" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F66" s="19" t="s">
         <v>177</v>
@@ -14456,7 +14471,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="23" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>187</v>
@@ -14472,13 +14487,13 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="26" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>192</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="I68" s="28" t="s">
         <v>192</v>
@@ -14492,13 +14507,13 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="31" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G69" s="32" t="s">
         <v>220</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="I69" s="34" t="s">
         <v>220</v>
@@ -14511,16 +14526,16 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="19" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F70" s="19" t="s">
         <v>199</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="I70" s="35"/>
       <c r="J70" s="1"/>
@@ -14530,16 +14545,16 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>167</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H71" s="1"/>
       <c r="J71" s="1"/>
@@ -14550,16 +14565,16 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="23" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>172</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="J72" s="1"/>
     </row>
@@ -14569,7 +14584,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="18" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F73" s="19" t="s">
         <v>177</v>
@@ -14585,7 +14600,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="23" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G74" s="24" t="s">
         <v>187</v>
@@ -14601,13 +14616,13 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="26" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G75" s="19" t="s">
         <v>192</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="I75" s="28" t="s">
         <v>192</v>
@@ -14621,13 +14636,13 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="18" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>220</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="I76" s="27" t="s">
         <v>220</v>
@@ -14640,7 +14655,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="14" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F77" s="19" t="s">
         <v>177</v>
@@ -14656,7 +14671,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="23" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G78" s="24" t="s">
         <v>187</v>
@@ -14672,13 +14687,13 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="26" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>192</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>192</v>
@@ -14692,13 +14707,13 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="31" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>220</v>
       </c>
       <c r="H80" s="33" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="I80" s="34" t="s">
         <v>220</v>
@@ -14710,16 +14725,16 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="E81" s="19" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>199</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -14729,16 +14744,16 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="14" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>226</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -14750,16 +14765,16 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="23" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F83" s="24" t="s">
         <v>182</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -14770,16 +14785,16 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="26" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="F84" s="19" t="s">
         <v>235</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -14790,16 +14805,16 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="18" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="F85" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -14811,16 +14826,16 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="23" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G86" s="24" t="s">
         <v>247</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="J86" s="1"/>
     </row>
@@ -14872,10 +14887,10 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="20" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -14889,10 +14904,10 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="20" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="J90" s="1"/>
     </row>
@@ -14905,10 +14920,10 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="20" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -14921,10 +14936,10 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="20" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="J92" s="1"/>
     </row>
@@ -14937,10 +14952,10 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="20" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -14953,10 +14968,10 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="20" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="J94" s="1"/>
     </row>
@@ -14966,16 +14981,16 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="23" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="F95" s="24" t="s">
         <v>261</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -14986,16 +15001,16 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="26" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F96" s="19" t="s">
         <v>266</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H96" s="28" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -15006,16 +15021,16 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="26" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="F97" s="19" t="s">
         <v>271</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="H97" s="28" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -15026,16 +15041,16 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="26" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F98" s="19" t="s">
         <v>276</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -15046,16 +15061,16 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="26" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="F99" s="19" t="s">
         <v>281</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -15066,16 +15081,16 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="18" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -15087,16 +15102,16 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="23" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="G101" s="24" t="s">
         <v>291</v>
       </c>
       <c r="H101" s="25" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="J101" s="1"/>
     </row>
@@ -15107,16 +15122,16 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="26" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G102" s="19" t="s">
         <v>299</v>
       </c>
       <c r="H102" s="20" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="J102" s="1"/>
     </row>
@@ -15127,16 +15142,16 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="26" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="G103" s="19" t="s">
         <v>309</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="I103" s="27" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="J103" s="1"/>
     </row>
@@ -15146,16 +15161,16 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="14" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="F104" s="24" t="s">
         <v>314</v>
       </c>
       <c r="G104" s="25" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H104" s="21" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -15167,16 +15182,16 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="23" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="G105" s="24" t="s">
         <v>319</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="J105" s="1"/>
     </row>
@@ -15187,16 +15202,16 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="26" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="G106" s="19" t="s">
         <v>325</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="J106" s="1"/>
     </row>
@@ -15206,16 +15221,16 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="14" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="F107" s="15" t="s">
         <v>330</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -15226,7 +15241,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="36" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F108" s="37" t="s">
         <v>342</v>
@@ -15243,7 +15258,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="19" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G109" s="19" t="s">
         <v>347</v>
@@ -15259,7 +15274,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="19" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="G110" s="19" t="s">
         <v>352</v>
@@ -15275,16 +15290,16 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="14" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>357</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="J111" s="1"/>
     </row>
@@ -15293,16 +15308,16 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="19" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -15313,16 +15328,16 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="23" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>362</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -15333,16 +15348,16 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="26" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>368</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -15353,16 +15368,16 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="18" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="E115" s="29" t="s">
         <v>373</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="G115" s="27" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -15374,16 +15389,16 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="23" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F116" s="24" t="s">
         <v>378</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="H116" s="21" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -15394,16 +15409,16 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="18" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="F117" s="29" t="s">
         <v>385</v>
       </c>
       <c r="G117" s="30" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -15413,16 +15428,16 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="14" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>390</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -15434,16 +15449,16 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="23" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F119" s="24" t="s">
         <v>396</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -15454,13 +15469,13 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="26" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="F120" s="19" t="s">
         <v>402</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="1"/>
@@ -15472,16 +15487,16 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="26" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F121" s="19" t="s">
         <v>408</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="H121" s="28" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -15492,16 +15507,16 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="18" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="F122" s="29" t="s">
         <v>414</v>
       </c>
       <c r="G122" s="30" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="H122" s="27" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -15511,10 +15526,10 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="19" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
@@ -15526,16 +15541,16 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="23" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>423</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -15545,100 +15560,100 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="26" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="E125" s="19" t="s">
         <v>430</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="18" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E126" s="19" t="s">
         <v>437</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="E127" s="23" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="F127" s="24" t="s">
         <v>442</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="H127" s="21" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="E128" s="26" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="F128" s="19" t="s">
         <v>447</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="H128" s="28" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="E129" s="18" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="G129" s="30" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -15648,16 +15663,16 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="14" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -15669,7 +15684,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="23" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="F131" s="24" t="s">
         <v>463</v>
@@ -15685,16 +15700,16 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="26" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="F132" s="19" t="s">
         <v>467</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="H132" s="28" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -15705,16 +15720,16 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="26" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="F133" s="19" t="s">
         <v>476</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="H133" s="28" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -15725,16 +15740,16 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="26" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="F134" s="19" t="s">
         <v>483</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="H134" s="28" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -15745,16 +15760,16 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="26" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="F135" s="19" t="s">
         <v>489</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="H135" s="27" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -15764,16 +15779,16 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="14" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F136" s="25" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -15783,16 +15798,16 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="E137" s="23" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="F137" s="24" t="s">
         <v>467</v>
       </c>
       <c r="G137" s="25" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -15802,16 +15817,16 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="E138" s="26" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="F138" s="19" t="s">
         <v>476</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="H138" s="28" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -15822,16 +15837,16 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="26" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="F139" s="19" t="s">
         <v>483</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="H139" s="28" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -15842,16 +15857,16 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="26" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="F140" s="19" t="s">
         <v>489</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="H140" s="27" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -15861,16 +15876,16 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="23" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>507</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -15881,16 +15896,16 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="18" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="E142" s="19" t="s">
         <v>515</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="G142" s="28" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -15902,16 +15917,16 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="23" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F143" s="24" t="s">
         <v>520</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="H143" s="21" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -15922,16 +15937,16 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="26" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="F144" s="19" t="s">
         <v>525</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="H144" s="28" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -15942,16 +15957,16 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="26" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F145" s="19" t="s">
         <v>530</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="H145" s="27" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -15961,7 +15976,7 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="40" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E146" s="41" t="s">
         <v>535</v>
@@ -15978,16 +15993,16 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="23" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="F147" s="24" t="s">
         <v>540</v>
       </c>
       <c r="G147" s="25" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -15998,16 +16013,16 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="26" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="F148" s="19" t="s">
         <v>545</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="H148" s="28" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -16018,16 +16033,16 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="26" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F149" s="19" t="s">
         <v>550</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="H149" s="28" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -16038,16 +16053,16 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="26" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="F150" s="19" t="s">
         <v>545</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="H150" s="28" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -16058,37 +16073,37 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="26" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="F151" s="19" t="s">
         <v>550</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="14" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="H152" s="44"/>
       <c r="I152" s="1"/>
@@ -16098,7 +16113,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="14" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D153" s="29" t="s">
         <v>564</v>
@@ -16117,16 +16132,16 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="14" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E154" s="15" t="s">
         <v>567</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -16138,16 +16153,16 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="14" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="F155" s="15" t="s">
         <v>571</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -16158,7 +16173,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="19" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="F156" s="19" t="s">
         <v>613</v>
@@ -16174,16 +16189,16 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="23" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="F157" s="24" t="s">
         <v>579</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -16193,16 +16208,16 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="14" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E158" s="24" t="s">
         <v>598</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -16214,16 +16229,16 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="23" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F159" s="24" t="s">
         <v>605</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="H159" s="21" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -16234,7 +16249,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="26" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="F160" s="19" t="s">
         <v>613</v>
@@ -16250,7 +16265,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="26" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F161" s="19" t="s">
         <v>618</v>
@@ -16266,7 +16281,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="18" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F162" s="19" t="s">
         <v>625</v>
@@ -16283,7 +16298,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="14" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="G163" s="15" t="s">
         <v>630</v>
@@ -16299,10 +16314,10 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="19" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="G164" s="19" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="H164" s="20"/>
       <c r="I164" s="20"/>
@@ -16316,10 +16331,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="19" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="H165" s="19" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="I165" s="20"/>
       <c r="J165" s="20"/>
@@ -16332,10 +16347,10 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="19" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="I166" s="20"/>
       <c r="J166" s="20"/>
@@ -16347,29 +16362,29 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="23" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="G167" s="24" t="s">
         <v>635</v>
       </c>
       <c r="H167" s="25" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="I167" s="21" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="J167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="45" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="G168" s="46" t="s">
         <v>642</v>
@@ -16380,14 +16395,14 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="G169" s="48" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="H169" s="49" t="s">
         <v>646</v>
@@ -16397,30 +16412,30 @@
     </row>
     <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="G170" s="45" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H170" s="51" t="s">
         <v>309</v>
       </c>
       <c r="I170" s="30" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="J170" s="52" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="14" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D171" s="24" t="s">
         <v>661</v>
@@ -16439,16 +16454,16 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="14" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="E172" s="24" t="s">
         <v>664</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="G172" s="21" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -16460,7 +16475,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="14" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F173" s="24" t="s">
         <v>670</v>
@@ -16477,16 +16492,16 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="23" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="G174" s="24" t="s">
         <v>673</v>
       </c>
       <c r="H174" s="25" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="I174" s="21" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="J174" s="1"/>
     </row>
@@ -16503,10 +16518,10 @@
         <v>73</v>
       </c>
       <c r="H175" s="20" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="I175" s="28" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="J175" s="1"/>
     </row>
@@ -16523,10 +16538,10 @@
         <v>77</v>
       </c>
       <c r="H176" s="20" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="I176" s="27" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="J176" s="1"/>
     </row>
@@ -16536,16 +16551,16 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="14" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F177" s="15" t="s">
         <v>686</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -16555,16 +16570,16 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="14" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="E178" s="19" t="s">
         <v>691</v>
       </c>
       <c r="F178" s="20" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="G178" s="28" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -16576,16 +16591,16 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="23" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="F179" s="24" t="s">
         <v>696</v>
       </c>
       <c r="G179" s="25" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="H179" s="21" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -16596,7 +16611,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="18" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="F180" s="19" t="s">
         <v>701</v>
@@ -16613,16 +16628,16 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="23" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G181" s="24" t="s">
         <v>705</v>
       </c>
       <c r="H181" s="25" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="I181" s="21" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="J181" s="1"/>
     </row>
@@ -16639,10 +16654,10 @@
         <v>77</v>
       </c>
       <c r="H182" s="20" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="J182" s="1"/>
     </row>
@@ -16652,16 +16667,16 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="23" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="F183" s="24" t="s">
         <v>717</v>
       </c>
       <c r="G183" s="25" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="H183" s="21" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -16672,16 +16687,16 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="18" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F184" s="19" t="s">
         <v>342</v>
       </c>
       <c r="G184" s="20" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="H184" s="28" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -16693,16 +16708,16 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="23" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G185" s="24" t="s">
         <v>347</v>
       </c>
       <c r="H185" s="25" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="I185" s="21" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="J185" s="1"/>
     </row>
@@ -16713,16 +16728,16 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="26" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="G186" s="19" t="s">
         <v>352</v>
       </c>
       <c r="H186" s="20" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="J186" s="1"/>
     </row>
@@ -16733,16 +16748,16 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="18" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="G187" s="29" t="s">
         <v>357</v>
       </c>
       <c r="H187" s="30" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="I187" s="27" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="J187" s="1"/>
     </row>
@@ -16751,7 +16766,7 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="23" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E188" s="24" t="s">
         <v>738</v>
@@ -16769,7 +16784,7 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="26" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="E189" s="19" t="s">
         <v>743</v>
@@ -16787,16 +16802,16 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="18" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="E190" s="29" t="s">
         <v>748</v>
       </c>
       <c r="F190" s="30" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -16807,7 +16822,7 @@
       <c r="B191" s="1"/>
       <c r="C191" s="6"/>
       <c r="D191" s="54" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E191" s="19" t="s">
         <v>753</v>
@@ -16823,7 +16838,7 @@
       <c r="B192" s="1"/>
       <c r="C192" s="6"/>
       <c r="E192" s="56" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F192" s="57" t="s">
         <v>756</v>
@@ -16838,16 +16853,16 @@
       <c r="B193" s="1"/>
       <c r="C193" s="6"/>
       <c r="E193" s="54" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="F193" s="60" t="s">
         <v>309</v>
       </c>
       <c r="G193" s="61" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="H193" s="62" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -16857,10 +16872,10 @@
       <c r="B194" s="1"/>
       <c r="C194" s="6"/>
       <c r="D194" s="19" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="E194" s="19" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="F194" s="63"/>
       <c r="G194" s="63"/>
@@ -16873,10 +16888,10 @@
       <c r="B195" s="1"/>
       <c r="C195" s="6"/>
       <c r="E195" s="19" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G195" s="63"/>
       <c r="H195" s="63"/>
@@ -16888,13 +16903,13 @@
       <c r="B196" s="1"/>
       <c r="C196" s="6"/>
       <c r="E196" s="19" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="G196" s="20" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -16905,32 +16920,32 @@
       <c r="B197" s="1"/>
       <c r="C197" s="6"/>
       <c r="E197" s="19" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="F197" s="19" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="H197" s="20" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="I197" s="6"/>
       <c r="J197" s="1"/>
     </row>
     <row r="198" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="6"/>
       <c r="E198" s="64"/>
       <c r="F198" s="46" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G198" s="19" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="H198" s="20"/>
       <c r="I198" s="20"/>
@@ -16938,28 +16953,28 @@
     </row>
     <row r="199" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="6"/>
       <c r="E199" s="64"/>
       <c r="F199" s="64"/>
       <c r="G199" s="19" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="H199" s="19" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="I199" s="20" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="J199" s="20" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="6"/>
@@ -16980,7 +16995,7 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="6"/>
@@ -17001,19 +17016,19 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="6"/>
       <c r="E202" s="64"/>
       <c r="F202" s="19" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>261</v>
       </c>
       <c r="H202" s="20" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="I202" s="20" t="s">
         <v>261</v>
@@ -17022,19 +17037,19 @@
     </row>
     <row r="203" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="6"/>
       <c r="E203" s="64"/>
       <c r="F203" s="19" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G203" s="19" t="s">
         <v>281</v>
       </c>
       <c r="H203" s="20" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="I203" s="20" t="s">
         <v>281</v>
@@ -17048,16 +17063,16 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="14" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="E204" s="24" t="s">
         <v>765</v>
       </c>
       <c r="F204" s="25" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G204" s="21" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -17069,16 +17084,16 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="23" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="F205" s="24" t="s">
         <v>771</v>
       </c>
       <c r="G205" s="25" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="H205" s="21" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -17089,16 +17104,16 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="18" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F206" s="19" t="s">
         <v>776</v>
       </c>
       <c r="G206" s="20" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="H206" s="28" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -17110,16 +17125,16 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="23" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G207" s="24" t="s">
         <v>779</v>
       </c>
       <c r="H207" s="25" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="I207" s="21" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="J207" s="1"/>
     </row>
@@ -17130,16 +17145,16 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="18" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G208" s="29" t="s">
         <v>785</v>
       </c>
       <c r="H208" s="30" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I208" s="27" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="J208" s="1"/>
     </row>
@@ -17147,7 +17162,7 @@
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="19" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="D209" s="19" t="s">
         <v>790</v>
@@ -17163,10 +17178,10 @@
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="D210" s="19" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="E210" s="19" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="F210" s="20"/>
       <c r="G210" s="20"/>
@@ -17178,10 +17193,10 @@
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="E211" s="19" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="F211" s="19" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20"/>
@@ -17192,16 +17207,16 @@
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="E212" s="19" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F212" s="19" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="G212" s="20" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="H212" s="20" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -17210,16 +17225,16 @@
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="F213" s="19" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="G213" s="19" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H213" s="20" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="I213" s="20" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="J213" s="1"/>
     </row>
@@ -17247,16 +17262,16 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="14" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="E215" s="24" t="s">
         <v>793</v>
       </c>
       <c r="F215" s="25" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="G215" s="21" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -17268,16 +17283,16 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="23" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="F216" s="24" t="s">
         <v>799</v>
       </c>
       <c r="G216" s="25" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="H216" s="21" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -17368,7 +17383,7 @@
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="23" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="F221" s="24" t="s">
         <v>85</v>
@@ -17377,14 +17392,14 @@
         <v>1036</v>
       </c>
       <c r="H221" s="21" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
     <row r="222" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -17396,10 +17411,10 @@
         <v>94</v>
       </c>
       <c r="G222" s="30" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="H222" s="27" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -17408,10 +17423,10 @@
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="14" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="E223" s="30"/>
       <c r="F223" s="27"/>
@@ -17422,15 +17437,15 @@
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="64"/>
       <c r="D224" s="19" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="E224" s="19" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="F224" s="20"/>
       <c r="G224" s="20"/>
@@ -17440,13 +17455,13 @@
     </row>
     <row r="225" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="64"/>
       <c r="D225" s="64"/>
       <c r="E225" s="19" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F225" s="19" t="s">
         <v>776</v>
@@ -17458,45 +17473,45 @@
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="64"/>
       <c r="D226" s="64"/>
       <c r="E226" s="35"/>
       <c r="F226" s="19" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G226" s="19" t="s">
         <v>779</v>
       </c>
       <c r="H226" s="20" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="I226" s="20" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="J226" s="1"/>
     </row>
     <row r="227" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="64"/>
       <c r="D227" s="64"/>
       <c r="E227" s="35"/>
       <c r="F227" s="19" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G227" s="19" t="s">
         <v>785</v>
       </c>
       <c r="H227" s="20" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="I227" s="20" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="J227" s="1"/>
     </row>
@@ -17505,16 +17520,16 @@
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="14" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="E228" s="15" t="s">
         <v>831</v>
       </c>
       <c r="F228" s="16" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -17528,7 +17543,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="14" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="F229" s="15" t="s">
         <v>836</v>
@@ -17545,16 +17560,16 @@
       <c r="D230" s="1"/>
       <c r="E230" s="64"/>
       <c r="F230" s="23" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G230" s="24" t="s">
         <v>840</v>
       </c>
       <c r="H230" s="25" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="I230" s="21" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="J230" s="1"/>
     </row>
@@ -17565,16 +17580,16 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="18" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="G231" s="29" t="s">
         <v>846</v>
       </c>
       <c r="H231" s="30" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="I231" s="27" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="J231" s="1"/>
     </row>
@@ -17586,7 +17601,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="23" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="H232" s="24" t="s">
         <v>851</v>
@@ -17625,16 +17640,16 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="14" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="G234" s="15" t="s">
         <v>859</v>
       </c>
       <c r="H234" s="16" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="I234" s="17" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="J234" s="1"/>
     </row>
@@ -17646,16 +17661,16 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="23" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="F235" s="19" t="s">
         <v>864</v>
       </c>
       <c r="G235" s="20" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="H235" s="28" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -17668,7 +17683,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="18" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="F236" s="19" t="s">
         <v>870</v>
@@ -17685,7 +17700,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="23" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="G237" s="24" t="s">
         <v>874</v>
@@ -17701,16 +17716,16 @@
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="18" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="G238" s="19" t="s">
         <v>309</v>
       </c>
       <c r="H238" s="20" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="I238" s="27" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="J238" s="1"/>
     </row>
@@ -17722,16 +17737,16 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="14" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="F239" s="15" t="s">
         <v>885</v>
       </c>
       <c r="G239" s="16" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="H239" s="17" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -17743,16 +17758,16 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="23" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="G240" s="24" t="s">
         <v>890</v>
       </c>
       <c r="H240" s="25" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="I240" s="21" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="J240" s="1"/>
     </row>
@@ -17763,16 +17778,16 @@
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="18" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="G241" s="19" t="s">
         <v>896</v>
       </c>
       <c r="H241" s="20" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="J241" s="1"/>
     </row>
@@ -17784,16 +17799,16 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="23" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="H242" s="24" t="s">
         <v>901</v>
       </c>
       <c r="I242" s="25" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="J242" s="21" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17804,16 +17819,16 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="26" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="H243" s="19" t="s">
         <v>907</v>
       </c>
       <c r="I243" s="20" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17824,16 +17839,16 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="18" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="H244" s="29" t="s">
         <v>912</v>
       </c>
       <c r="I244" s="30" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="J244" s="27" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17843,16 +17858,16 @@
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="23" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="G245" s="19" t="s">
         <v>917</v>
       </c>
       <c r="H245" s="20" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="J245" s="1"/>
     </row>
@@ -17863,16 +17878,16 @@
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="26" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="G246" s="19" t="s">
         <v>922</v>
       </c>
       <c r="H246" s="20" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="J246" s="1"/>
     </row>
@@ -17883,7 +17898,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="18" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="G247" s="29" t="s">
         <v>927</v>
@@ -17900,10 +17915,10 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="19" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="H248" s="19" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="I248" s="20"/>
       <c r="J248" s="20"/>
@@ -17916,16 +17931,16 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="23" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="H249" s="24" t="s">
         <v>931</v>
       </c>
       <c r="I249" s="25" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="J249" s="21" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17936,16 +17951,16 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="26" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="H250" s="19" t="s">
         <v>938</v>
       </c>
       <c r="I250" s="20" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17956,16 +17971,16 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="18" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="H251" s="29" t="s">
         <v>944</v>
       </c>
       <c r="I251" s="30" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="J251" s="27" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17975,16 +17990,16 @@
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="23" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="G252" s="24" t="s">
         <v>950</v>
       </c>
       <c r="H252" s="25" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="I252" s="21" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="J252" s="1"/>
     </row>
@@ -17995,7 +18010,7 @@
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="18" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="G253" s="19" t="s">
         <v>776</v>
@@ -18012,16 +18027,16 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="23" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="H254" s="24" t="s">
         <v>779</v>
       </c>
       <c r="I254" s="25" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="J254" s="21" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18032,16 +18047,16 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="26" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="H255" s="19" t="s">
         <v>785</v>
       </c>
       <c r="I255" s="20" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="J255" s="27" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18051,7 +18066,7 @@
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="14" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="G256" s="24" t="s">
         <v>965</v>
@@ -18068,16 +18083,16 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="23" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="H257" s="24" t="s">
         <v>969</v>
       </c>
       <c r="I257" s="25" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="J257" s="21" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18088,16 +18103,16 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="18" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H258" s="29" t="s">
         <v>309</v>
       </c>
       <c r="I258" s="30" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="J258" s="27" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
   </sheetData>
@@ -18138,1494 +18153,1494 @@
   <sheetData>
     <row r="1" s="69" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="66" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="B2" s="65" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="D2" s="65" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="66" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="B3" s="65" t="n">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="D3" s="65" t="n">
         <v>5</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="66" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="B4" s="65" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="66" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B5" s="65" t="n">
         <v>150</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="66" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B6" s="65" t="n">
         <v>175</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="D6" s="65" t="n">
         <v>78</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="66" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B7" s="65" t="n">
         <v>81</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="66" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B8" s="65" t="n">
         <v>81</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D8" s="65" t="n">
         <v>81</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="66" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B9" s="65" t="n">
         <v>144</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B10" s="65" t="n">
         <v>145</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="B11" s="65" t="n">
         <v>146</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B12" s="65" t="n">
         <v>147</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B13" s="65" t="n">
         <v>218</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="66" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B14" s="65" t="n">
         <v>148</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B15" s="65" t="n">
         <v>13</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D15" s="65" t="n">
         <v>13</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F15" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="66" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B16" s="65" t="n">
         <v>197</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B17" s="65" t="n">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="D17" s="65" t="n">
         <v>15</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="B18" s="65" t="n">
         <v>149</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="B19" s="65" t="n">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="D19" s="65" t="n">
         <v>15</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B20" s="65" t="n">
         <v>149</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B21" s="65" t="n">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D21" s="65" t="n">
         <v>17</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B22" s="65" t="n">
         <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="D22" s="65" t="n">
         <v>101</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B23" s="65" t="n">
         <v>177</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D23" s="65" t="n">
         <v>75</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B24" s="65" t="n">
         <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="D24" s="65" t="n">
         <v>73</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F24" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B25" s="65" t="n">
         <v>21</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D25" s="65" t="n">
         <v>21</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F25" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B26" s="65" t="n">
         <v>22</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="D26" s="65" t="n">
         <v>22</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F26" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B27" s="65" t="n">
         <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="D27" s="65" t="n">
         <v>74</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F27" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="B28" s="65" t="n">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="D28" s="65" t="n">
         <v>23</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F28" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B29" s="65" t="n">
         <v>24</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D29" s="65" t="n">
         <v>24</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F29" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B30" s="65" t="n">
         <v>152</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="B31" s="65" t="n">
         <v>25</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="D31" s="65" t="n">
         <v>25</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F31" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B32" s="65" t="n">
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D32" s="65" t="n">
         <v>26</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B33" s="65" t="n">
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="D33" s="65" t="n">
         <v>27</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F33" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B34" s="65" t="n">
         <v>28</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="D34" s="65" t="n">
         <v>28</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F34" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="B35" s="65" t="n">
         <v>29</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D35" s="65" t="n">
         <v>29</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F35" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B36" s="65" t="n">
         <v>30</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="D36" s="65" t="n">
         <v>30</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F36" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="B37" s="65" t="n">
         <v>31</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D37" s="65" t="n">
         <v>31</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F37" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="B38" s="65" t="n">
         <v>153</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D38" s="65" t="n">
         <v>33</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F38" s="72" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="B39" s="65" t="n">
         <v>154</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B40" s="65" t="n">
         <v>158</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="D40" s="65" t="n">
         <v>38</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F40" s="72" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B41" s="65" t="n">
         <v>159</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F41" s="72" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B42" s="65" t="n">
         <v>161</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="D42" s="65" t="n">
         <v>40</v>
       </c>
       <c r="E42" s="65" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F42" s="72" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B43" s="65" t="n">
         <v>162</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F43" s="72" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="B44" s="65" t="n">
         <v>178</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F44" s="72" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="B45" s="65" t="n">
         <v>155</v>
       </c>
       <c r="C45" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="73" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="B46" s="74" t="n">
         <v>44</v>
       </c>
       <c r="C46" s="73" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="D46" s="74" t="n">
         <v>44</v>
       </c>
       <c r="E46" s="74" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="73" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="B47" s="74" t="n">
         <v>45</v>
       </c>
       <c r="C47" s="73" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D47" s="74" t="n">
         <v>45</v>
       </c>
       <c r="E47" s="74" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="73" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B48" s="74" t="n">
         <v>44</v>
       </c>
       <c r="C48" s="73" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="D48" s="74" t="n">
         <v>44</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="73" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="B49" s="74" t="n">
         <v>73</v>
       </c>
       <c r="C49" s="73" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D49" s="74" t="n">
         <v>73</v>
       </c>
       <c r="E49" s="74" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="73" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="B50" s="74" t="n">
         <v>91</v>
       </c>
       <c r="C50" s="73" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="D50" s="74" t="n">
         <v>91</v>
       </c>
       <c r="E50" s="74" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="75" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B51" s="74" t="n">
         <v>64</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="D51" s="74" t="n">
         <v>64</v>
       </c>
       <c r="E51" s="74" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="B52" s="65" t="n">
         <v>163</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="B53" s="65" t="n">
         <v>219</v>
       </c>
       <c r="C53" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E53" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B54" s="65" t="n">
         <v>44</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="D54" s="65" t="n">
         <v>44</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B55" s="65" t="n">
         <v>46</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="D55" s="65" t="n">
         <v>46</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="B56" s="65" t="n">
         <v>91</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="D56" s="65" t="n">
         <v>91</v>
       </c>
       <c r="E56" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F56" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B57" s="65" t="n">
         <v>164</v>
       </c>
       <c r="C57" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B58" s="65" t="n">
         <v>16</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="D58" s="65" t="n">
         <v>16</v>
       </c>
       <c r="E58" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F58" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B59" s="65" t="n">
         <v>51</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D59" s="65" t="n">
         <v>51</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B60" s="65" t="n">
         <v>91</v>
       </c>
       <c r="C60" s="66" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="D60" s="65" t="n">
         <v>91</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F60" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B61" s="65" t="n">
         <v>49</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="D61" s="65" t="n">
         <v>49</v>
       </c>
       <c r="E61" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F61" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B62" s="65" t="n">
         <v>93</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="D62" s="65" t="n">
         <v>93</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F62" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B63" s="65" t="n">
         <v>92</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D63" s="65" t="n">
         <v>92</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F63" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B64" s="65" t="n">
         <v>65</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="D64" s="65" t="n">
         <v>65</v>
       </c>
       <c r="E64" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F64" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="B65" s="65" t="n">
         <v>166</v>
       </c>
       <c r="C65" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E65" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="B66" s="65" t="n">
         <v>58</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="D66" s="65" t="n">
         <v>58</v>
       </c>
       <c r="E66" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F66" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="B67" s="65" t="n">
         <v>100</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D67" s="65" t="n">
         <v>100</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F67" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B68" s="65" t="n">
         <v>61</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D68" s="65" t="n">
         <v>61</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F68" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B69" s="65" t="n">
         <v>171</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E69" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="B70" s="65" t="n">
         <v>62</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="D70" s="65" t="n">
         <v>62</v>
       </c>
       <c r="E70" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="B71" s="65" t="n">
         <v>96</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="D71" s="65" t="n">
         <v>96</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F71" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B72" s="65" t="n">
         <v>91</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D72" s="65" t="n">
         <v>91</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="B73" s="65" t="n">
         <v>49</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="D73" s="65" t="n">
         <v>49</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F73" s="70" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="B74" s="65" t="n">
         <v>173</v>
       </c>
       <c r="C74" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
     </row>
   </sheetData>
@@ -19662,37 +19677,37 @@
   <sheetData>
     <row r="1" s="68" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="76" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="236.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="77" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="E2" s="78"/>
       <c r="F2" s="0" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -20715,26 +20730,26 @@
     </row>
     <row r="3" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E3" s="78"/>
       <c r="F3" s="19" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
@@ -21755,19 +21770,19 @@
     </row>
     <row r="4" customFormat="false" ht="330.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="80" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -22791,19 +22806,19 @@
     </row>
     <row r="5" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="80" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -23827,16 +23842,16 @@
     </row>
     <row r="6" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="0"/>
@@ -24861,19 +24876,19 @@
     </row>
     <row r="7" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="79" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -25897,16 +25912,16 @@
     </row>
     <row r="8" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="E8" s="78"/>
       <c r="F8" s="0"/>
@@ -26931,16 +26946,16 @@
     </row>
     <row r="9" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="0"/>
@@ -27965,16 +27980,16 @@
     </row>
     <row r="10" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -28999,19 +29014,19 @@
     </row>
     <row r="11" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -30035,16 +30050,16 @@
     </row>
     <row r="12" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="77" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="0"/>
@@ -31069,16 +31084,16 @@
     </row>
     <row r="13" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="77" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="E13" s="78"/>
       <c r="F13" s="0"/>
@@ -32103,16 +32118,16 @@
     </row>
     <row r="14" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="77" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="0"/>
@@ -33137,22 +33152,22 @@
     </row>
     <row r="15" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="80" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -34175,19 +34190,19 @@
     </row>
     <row r="16" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="80" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -35211,16 +35226,16 @@
     </row>
     <row r="17" customFormat="false" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="79" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="E17" s="78"/>
       <c r="F17" s="0"/>
@@ -36245,16 +36260,16 @@
     </row>
     <row r="18" customFormat="false" ht="299.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="E18" s="78"/>
       <c r="F18" s="0"/>
@@ -37279,16 +37294,16 @@
     </row>
     <row r="19" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="E19" s="78"/>
       <c r="F19" s="0"/>
@@ -38313,19 +38328,19 @@
     </row>
     <row r="20" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="80" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -39349,16 +39364,16 @@
     </row>
     <row r="21" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="80" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="E21" s="78"/>
       <c r="F21" s="0"/>
@@ -40383,16 +40398,16 @@
     </row>
     <row r="22" customFormat="false" ht="283.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="80" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="E22" s="78"/>
       <c r="F22" s="0"/>
@@ -41417,16 +41432,16 @@
     </row>
     <row r="23" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="80" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="E23" s="78"/>
       <c r="F23" s="0"/>
@@ -42451,16 +42466,16 @@
     </row>
     <row r="24" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="E24" s="78"/>
       <c r="F24" s="0"/>
@@ -43485,19 +43500,19 @@
     </row>
     <row r="25" customFormat="false" ht="220.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="E25" s="78" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -44521,88 +44536,88 @@
     </row>
     <row r="26" customFormat="false" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="E26" s="78"/>
     </row>
     <row r="27" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="E27" s="78"/>
     </row>
     <row r="28" customFormat="false" ht="173.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="D28" s="79" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="E28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="E29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="79" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="E30" s="78"/>
     </row>
     <row r="31" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="81" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B31" s="81" t="s">
         <v>701</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="81" t="s">
@@ -44611,67 +44626,67 @@
     </row>
     <row r="32" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="81" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="81" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="81" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="B33" s="81"/>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
       <c r="E33" s="81" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="81" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
       <c r="E34" s="81" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="81" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="D35" s="81"/>
       <c r="E35" s="81" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="81" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B36" s="81"/>
       <c r="C36" s="81"/>
       <c r="D36" s="81"/>
       <c r="E36" s="81" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
     </row>
   </sheetData>
@@ -44707,16 +44722,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44724,13 +44739,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44738,13 +44753,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44752,13 +44767,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44766,13 +44781,13 @@
         <v>31</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44780,13 +44795,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44794,13 +44809,13 @@
         <v>24</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44808,13 +44823,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44822,13 +44837,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44836,13 +44851,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44850,13 +44865,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44864,13 +44879,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44878,13 +44893,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44892,13 +44907,13 @@
         <v>38</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44906,13 +44921,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44920,13 +44935,13 @@
         <v>43</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44934,13 +44949,13 @@
         <v>41</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44948,13 +44963,13 @@
         <v>44</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44962,13 +44977,13 @@
         <v>45</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44976,13 +44991,13 @@
         <v>46</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44990,13 +45005,13 @@
         <v>47</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45004,13 +45019,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45018,13 +45033,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45032,13 +45047,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45046,13 +45061,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45060,13 +45075,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45074,13 +45089,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45088,13 +45103,13 @@
         <v>36</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45102,13 +45117,13 @@
         <v>40</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45116,7 +45131,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>225</v>
@@ -45130,13 +45145,13 @@
         <v>49</v>
       </c>
       <c r="B31" s="84" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45144,13 +45159,13 @@
         <v>51</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45158,7 +45173,7 @@
         <v>48</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>225</v>
@@ -45172,13 +45187,13 @@
         <v>53</v>
       </c>
       <c r="B34" s="85" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45186,13 +45201,13 @@
         <v>54</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45200,13 +45215,13 @@
         <v>55</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45214,13 +45229,13 @@
         <v>56</v>
       </c>
       <c r="B37" s="85" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>1814</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45228,13 +45243,13 @@
         <v>57</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45242,13 +45257,13 @@
         <v>58</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
     </row>
   </sheetData>
